--- a/data/hotels_by_city/Dallas/Dallas_shard_385.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_385.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="480">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>carnbravila</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>CBGeorgia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r493121005-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>We were passing through town, and called a couple of hotels in Weatherford to see what was available. The Holiday Inn Express had a room with 2 queen beds, a pool inside, and breakfast. The lobby and room were clean. The pool room was open until 11 pm, so I had a night time swim to relax before bedtime. It was wonderfully warm, not only in The water, but also the pool room! That is just what I want when I am in My bathing suit!We had a great night of rest, in a quiet part of the 2nd floor. When we woke we had a very nice breakfast selection before we hit the road.All in all it was a great experience!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r477847959-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Nora O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r476076193-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>The only struggle we had at this hotel was checking in; the attendant was away from the desk when we arrived and another guest had been waiting. When we called the hotel, she arrived promptly.Our room was great. It had two rooms two beds and a pullout sofa, and three tvs. It was a big family's dream.More</t>
   </si>
   <si>
+    <t>Jennifer J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r473710277-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>This hotel is right off of 20 near Target and several restaurants making it a great location. The staff is friendly and were quick with check in too. The rooms are spacious and beds are comfortable-no complaints here! More</t>
   </si>
   <si>
+    <t>dsmt05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r436253737-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Jack M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r436009083-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>Hotel allowed the Family to block at several rooms at a reduced rate.  It has easy access off the highway and easy to find.  The check in was very easy and the clerk was helpful and courteous.  The room was comfortable and very clean.  Everything worked.  Excellent bed with several big pillows.  AC worked good.  The free breakfast was a full meal with various options.  It was better than most hotel buffets.  The overall experience was excellent.</t>
   </si>
   <si>
+    <t>Steven R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r434579627-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>CPA2GO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r420087899-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>Although the property appears nice and the front desk personnel are friendly, be very cautious!!! We were double billed for our two night stay!!!! When we discovered this the day after we left and contacted the hotel, they admitted there was an error and said they would correct it and call us back. That was September 8th! No one has returned our call or replied to email inquiries. We had to turn this over to Amex who says it can take 6-8 weeks. In the meantime, we are out $240!!!More</t>
   </si>
   <si>
+    <t>Danny J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r403808205-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t>I tried this hotel on the recommendation of a family member (as I usually stay on other properties when I'm in weatherford) and did I ever regret it. After checking in I made my way to my room and upon entering my room I was immediately overcome with a musty moldy smoke stink , return to the desk , staff was very accommodating , and moved me across the hall ...,I go in same odor... Return with bags in hand to the desk , young man calls the boss and offers one last suite and its the "jaccuzi " suite ,smells more like deodorizer. Mattress was breaking down lumpy and uncomfortable , front facing rooms face the interstate and expanded service roads to accommodate growing traffic. And to top it all off I left my YETI tall tumbler in the bathroom and when I called to retrieve it ,I'm told it's not in the lost and found.... That's because it's in the housekeepers car!!!I will never stay here again and unless you prefer old rundown hotels, that have less than honest help id try the half dozen newer nice hotels in weatherford !!!More</t>
   </si>
   <si>
+    <t>Greekprof7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r333471082-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -402,6 +435,9 @@
     <t>As of today, the HI Express in Weatherford is the #7 TA hotel in town. This was my fifth trip to Weatherford in about three years and my fifth hotel. I'd say the ratings are pretty accurate (although it has an average of 4 rather than my 3). Check-in was smooth; the staff seemed fine. The room was spacious enough. The dresser/TV stand/microwave-fridge holder was a little on the beat up side; one of the drawer handles was ready to come off and the door behind which the fridge sat would never close all the way. The bathroom was clean except for around the edges: some of the caulking and edging was a little on the musty side. The bed was comfortable enough but the pillows were lacking in firmness (even the ones labeled as such). The breakfast was decent and expected HI Express fare. If you stay here, be aware of the alternate exit of the parking lot which will head you south then west so that you don't have to take the frontage road every time you leave the hotel.More</t>
   </si>
   <si>
+    <t>bowlerwife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r329846216-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -429,6 +465,9 @@
     <t>I talked to the desk clerk on the phone and should have taken from that call that she wasn't the friendly one around.  The morning desk clerk was very nice.  The hotel is ok...the pool area was so steamy you couldnt even see.  Never saw a pool area so steamy.  The breakfast was ok but the usual at a Holiday Inn Express.  No restaurants within walking distance.  More</t>
   </si>
   <si>
+    <t>AngstBane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r325100966-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -450,6 +489,9 @@
     <t>The hotel is right on I-20 and south of the town.  Downtown is about 5 miles north.  But most of the shopping is along Main street (Hwy 51) and this hotel is just off Main Street on the I-20 frontage road.  Beside it and across the freeway with easy (although busy trafficked intersection) is lots of shopping such as Kohls, Belk, JC Penny, Michaels, Lowes, and much more.  Lots of restaurants all around.I like the room.  It was a clean but worn room with good quality amenities such as shampoo, conditioner, hair dryer, and such.  Stand-up shower was larger than expected. Highway travelers would find this convenient.  Visitors to Weatherford, and the well-known and worthwhile First Monday flea market, would have a short drive while staying in a good shopping area.More</t>
   </si>
   <si>
+    <t>Laura C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r324301694-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -468,6 +510,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Lanternhill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r316460668-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -486,6 +531,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Jennifer R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r278594391-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -510,6 +558,9 @@
     <t>We checked in at 4:30 and had to wait in the hallway for the room to be cleaned. There were no towels in the pool area. When we contacted the desk, we were told they would be brought. Twenty minutes later, the lady at the front desk was too busy to come with the towels. There was a roach motel on  the counter in the bathroom. The bed thankfully was great and the breakfast was great. I probably will not stay here again though. More</t>
   </si>
   <si>
+    <t>MCF618</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r275190903-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -526,6 +577,9 @@
   </si>
   <si>
     <t>May 2015</t>
+  </si>
+  <si>
+    <t>PamHiran</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r268200673-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -559,6 +613,9 @@
 The demeanor of the staff at the hotel was very uncaring. We ended up contacting IHG...We booked our trip via a third-party website and requested a crib. I called the hotel directly to make sure the crib request was added and got the response of " if you requested it, then it shouldn't be a problem". We showed up at midnight due to delayed flight with our baby and there were no cribs. Turns out, we've been told that night upon check-in, there were 4 cribs which were all being used. The next morning, the lady who identified herself as the manager on duty said they only had 1 crib in the whole property and it would be unavailable for another week. We were told they would try to look for a crib from another nearby property but we never heard back.Upon check-in, we were assigned a non-smoking room which had recently been converted from a smoking room (Room 310). The sign in the front of the room did not have a non-smoking sign on it. We asked for a room change and after 10-15 minutes of checking on her computer, we were informed we needed to pay the upgrade fees to get a (requested) non-smoking room because only suites were available (we booked a regular room). Travelers with respiratory problems or travelers with infants should make sure the requested non-smoking room was not previously a smoking room.The demeanor of the staff at the hotel was very uncaring. We ended up contacting IHG Care via email and that led to the upgrade fees being waived. Upon check out, we were told that we would be reimbursed partially for all the inconvenience but that has not happened so far (it's been 7 days since check out).Other observations: luggage carts are in poor condition and all over the hall, broken pancake machine for the whole 3 nights stay, regular corn flakes in frosted flakes container, puddle of water by the window after a thunderstorm.More</t>
   </si>
   <si>
+    <t>baleezmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r266146697-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -583,6 +640,9 @@
     <t>I rated this hotel average because it was a decent place and very typical.  I only stayed 1 night for business.  The hotel overall was clean, the bed was fine.  I did like the choice of soft or firm pillows.  The breakfast was the usual HIE offering and their cinnamon rolls are always good.  There was a little trouble booking rooms and getting confirmations and I think there may have been a communication barrier.  I booked 6 rooms for my work group and we all ended up with the correct accommodations but I had to work to get it done and get the confirmations.   Abby was very helpful when I called for verification and assistance.  One word of caution if you enter from the side entrance, there is a short narrow median right in the drive so when you turn into the parking lot you have to make a sharp left and then back right or you will hit the median.  3 out of the 4 vehicles in our party had problems with it, they need to do something about it before someone tears up a car.More</t>
   </si>
   <si>
+    <t>Steven B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r263826630-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -599,6 +659,9 @@
   </si>
   <si>
     <t>Appears to be a newer hotel in the area.  The rooms were clean and quiet.  The beds were a little soft for my taste but that's my   The price was a little higher than I expected for an HI Express but we were tired and needed to sleep.  Check-in was a bit of a struggle as the woman working overnight was new and told me 3 different prices before finally getting me booked.  In the morning, we discovered that there were plenty of restaurants and stores walking distance so the hotel is in a good area.  I liked that the parking lot was well lit and we could see the car from our room.More</t>
+  </si>
+  <si>
+    <t>groommom2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r263083789-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -636,6 +699,9 @@
 Facilities / No hot water   The water was barely lukewarm water morning of Saturday 3/28.  When asked about it, they said, ‘yes, we’ve been having problems with it.’ …so it was a known issue.  My brother...First,  similar complaints have been voiced by others in the wedding party.  Didn’t get the room type requested (received a 2 queen room – asked for a 2 king suite).  Room requested in October 2014.  Then when I tried to change it to what was requested, they didn’t want to give me the discounted rate for the wedding…or ANY discount for that matter.  The comment was “since this is a late reservation, you’ll have to pay the full price.”  Week beginning 3/16.Non-responsive   They didn’t call me back when they said they would.  Week beginning 3/16 to confirm the room and rate.  And again on 3/31 4th call.  Can’t get help with billing / Rude on phone   When I called to try to resolved a duplicate billing situation, this was the response, “I’m the only one here and this is going to take me a long time to figure out”.  That’s ok.  Except that without notice, I was put on hold 3 times and then the call was dropped from the other side after 6 minutes.  3/31 afternoon.  Wound up settling with my mom.  I figured out that they charged me for her room even though she provided her credit card number upon check-in.Facilities / No hot water   The water was barely lukewarm water morning of Saturday 3/28.  When asked about it, they said, ‘yes, we’ve been having problems with it.’ …so it was a known issue.  My brother asked them if he could look at it.  He simply turned off the non-working tank so its cold water wouldn’t mix with the working tank.  Facilities / Treadmills not working  Morning of Saturday 3/28.  Turns out they just needed to be moved closer to the outlet and plugged in.  IMHO these were issues that could have been resolved easily with appropriate leadership and owner responsibility.  I guess that’s why I’m so very surprised that these issues were just accepted/avoided by the staff and the owner.  The situation can be salvaged.  Until then…       Go elsewhereMore</t>
   </si>
   <si>
+    <t>danarbrad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r255699567-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -651,6 +717,9 @@
     <t xml:space="preserve">We were staying here for a softball tournament. Rooms were ready and very clean upon arrival. Front desk was very nice and efficient. Only complaint was very meager breakfast selection and the girls reported that hot items were barely warm. Otherwise a great place in a great location close to stores and restaurants. </t>
   </si>
   <si>
+    <t>Shawnase</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r248846460-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -666,6 +735,9 @@
     <t>Checked in after a long 10 hour drive, the two young men helped us by changing our reservation from one king size bed to two queens but they were full size. The pool and hot tub were very cloudy to suggest more bacteria. At 0300 a rush of military personnel were packing up in the hall and not very quiet. At 0600 personnel from DOT slammed doors and were talking outside our room. I love this chain but next time there are people who need to get up at that hour, can you place others away from the commotion?</t>
   </si>
   <si>
+    <t>twinsontheroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r239288296-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -711,6 +783,9 @@
     <t>We stayed here the night of a friends wedding that was close by. The hotel was in a very convenient location right off the highway. The lobby and staff were very nice. Our room and bed were very comfortable and we got a very good nights rest. We had breakfast the next morning and the food and selection was great. Our only complaint was that we had no water pressure and our water smelled horrible and was not drinkable in our room. We got the same smell out of the sink and shower. My parents were staying right down the hall and said they had great water and water pressure so I guess it may have only been our room. My parents did however have a problem with bugs coming in their room through the sprinkler. We did report the problem to the front desk when we checked out and they said they were going to have someone check into it.More</t>
   </si>
   <si>
+    <t>Tim L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r209784532-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -738,6 +813,9 @@
     <t>We needed a place to stay on our recent trip to the Dallas/Ft. Worth area for our niece's graduation and chose this hotel in Weatherford.  The location is right off I-20 and was clean, comfortable and economical.  The breakfast was included in the price of the room and proved to be a cut above the norm.  The room was large, everything worked and was in order and we slept just fine.  There was quite a bit of noise from the adjacent Interstate but nothing a sound machine couldn't offset.More</t>
   </si>
   <si>
+    <t>wick1979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r200648097-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -765,6 +843,9 @@
     <t>Had to stay here due to our hotel being over sold the first night. Was nice and new. Rooms were good size but walls were thin. Breakfast area down stairs was nice and large. Is not out of the way from main st. Requiring you to go around the block every time to do anything as it's a one way road got to be a pain even after only a night there. Would recommend a hotel up off main st for more easy in and out of weatherford. More</t>
   </si>
   <si>
+    <t>WALTER S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r187157947-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -789,6 +870,9 @@
     <t>On the whole fine, but a couple of oddities.  The coffee maker did not work right, and the bedside lamps were controlled by a switch that also put on the hallway light.  So either you had the hallway light on or the bedside lamps did not work.  Don't plow parking lot well in bad weather.More</t>
   </si>
   <si>
+    <t>LubbockMike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r185815132-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -816,6 +900,9 @@
     <t>Very nice accommodations with a wonderful staff.  Due to a recent winter storm which left us without electricity, we fled to this Holiday Inn Express for warmth and lights.  I highly recommend this property.  I stay in motels over 100 nights per year, and this place is among my favorites.  I will stay here in the future.More</t>
   </si>
   <si>
+    <t>Kalee L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r183690639-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -831,6 +918,9 @@
     <t>Britt was absolutely a delight to work with! I called him for a reservation (for a customer that was in route to the area) and he was able to not only secure a room, but able to assist with special accommodations, as well.  I am in the business and our loyal customers look for the quality of service that they are accustomed to.......Britt was a prime example of the way that Holiday Inn Express operates! Kudos to you, Britt! I nominate you as Employee Of The Month!!! Thanks for making a difference!! - Kalee Lancaster, Director of Sales &amp; Marketing, Holiday Inn Express, Jacksonville, Texas.</t>
   </si>
   <si>
+    <t>MrsLeos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r180328091-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -844,6 +934,9 @@
   </si>
   <si>
     <t xml:space="preserve">I traveled with my 3 boys to visit my husband who is working in the area. We rented a family suite. It was perfect. The bed was so comfy I didn't last 15 minutes by the time I was out. My boys enjoyed the indoor pool since it was cold out that night. Staff were great. this hotel has set the bar very high for what makes a great stay. </t>
+  </si>
+  <si>
+    <t>Nancy E</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r173409571-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -871,6 +964,9 @@
 We were well pleased with this hotel and would stay again if in...We stayed here while traveling through Texas. It is just off the Interstate 20, easy to get to. we were greeted kindly by the check-in attendant promptly. Fresh cookies and Orange- water were available. This was a reward night for us and we were greeted as so, since we are Priority club members. We had our choice of free snacks and each given a bottle of cold water.  the room was a King handicapped room which was fine, it had an extra large bathroom. I love the Bath and Body works shampoo, and conditioner and soap. There were plenty of towels for us to shower at night and in the morning. The room had a microwave and refrigerator, extra soft lounge chair and table with lamp.  the king bed was exceptionally comfortable and there was a plug in in the lamp which I like so I can keep my cell phone plugged in on the night stand.Breakfast was the same as most HIE - pancake maker, fresh oranges, apples and bananas, cheese omelets, bacon, biscuits and gravy, etc. There was a large island and the area was easy to move around and prep your food. There were small tables along with a LARGE long table with bar stool height chairs, situated so you could watch the morning news. There were 2 different newspapers available for free.We were well pleased with this hotel and would stay again if in the area.More</t>
   </si>
   <si>
+    <t>SaltRiverRafter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r169177758-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -889,6 +985,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Catsnidget</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r167860512-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -902,6 +1001,9 @@
   </si>
   <si>
     <t>We decided to stop after a long day of driving. The service was pretty good and the rooms were nice as well. Breakfast left me somewhat unsatisfied, especially for the price they asked us for a night. Also, do not go to Lucille's dinner, even if they do recommend it. The food was way over-priced and the service was terrible.</t>
+  </si>
+  <si>
+    <t>Fred C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r167662551-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -947,6 +1049,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>tigilau</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r162755049-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -974,6 +1079,9 @@
     <t>My bad review started with the fact that I was greeted by a nice young lady who, through no fault of her own, knew nothing about what she was supposed to do with me.  This was her first day there, which I understand BUT the girl there to "train" her had only been with the company for 1 week.  There was a gentleman delivering a new air conditioner, neither of them knew where to send him or what to do about the delivery.  So while the "experienced" one called her supervisor to ask what she was supposed to do, the "brand new" one continued to apologize to me for not knowing what to do.  Onward from there and finally getting my keys and pointed in the right direction to the elevator we arrived in our room.  It was a suite with 2 bedrooms.  In the room that my friend chose, she's older and I usually let her decide, the air conditioner worked, okay, but in what was to be my room, nothing.  To make a long story short, I'm hot natured and she is cold natured, so after trying to figure out how to make "mine" work we switched rooms and I went down to address the situation with the girls, again neither of them knew what to do, so I just accepted the bedroom switch.  Then when I arrived back upstairs, my friend was having difficulty working any of...My bad review started with the fact that I was greeted by a nice young lady who, through no fault of her own, knew nothing about what she was supposed to do with me.  This was her first day there, which I understand BUT the girl there to "train" her had only been with the company for 1 week.  There was a gentleman delivering a new air conditioner, neither of them knew where to send him or what to do about the delivery.  So while the "experienced" one called her supervisor to ask what she was supposed to do, the "brand new" one continued to apologize to me for not knowing what to do.  Onward from there and finally getting my keys and pointed in the right direction to the elevator we arrived in our room.  It was a suite with 2 bedrooms.  In the room that my friend chose, she's older and I usually let her decide, the air conditioner worked, okay, but in what was to be my room, nothing.  To make a long story short, I'm hot natured and she is cold natured, so after trying to figure out how to make "mine" work we switched rooms and I went down to address the situation with the girls, again neither of them knew what to do, so I just accepted the bedroom switch.  Then when I arrived back upstairs, my friend was having difficulty working any of the 3 TVs that were in the rooms.  I was finally able to get one to work but really just gave up on telling anyone about the problem.Next morning we went down for breakfast, looking forward to the great cinnamon rolls that we have come to expect at HIE.  However they had left the top cover off the rolls and they were dry with no taste left to them.  I mentioned to the person on duty that if they left the cover on them as all the other HIE, where we have stayed do, that they would stay fresher and delicious as they are when they are first taken from the oven.  His response was, "the OWNER makes us remove the cover so customers won't have trouble getting them onto their plates.My point, to all of this is, I certainly hope that IHG has not gone the way of the Best Western hotel chain where they are owned by individuals setting their own standards instead of following the guidelines that have helped them reach such dependable high standards.I was in Customer Service with a large national company for several years, and it is highly unusual to leave two untrained employees in charge of a counter.  There is no complaint against the girls, but the OWNER should be reprimanded if not let go, if you can do that to an owner.From now on we will think more than twice before we stay at a HIE again.  We did stay at a Staybridge, in Tyler, TX because the res was made before this fiasco happened, and that worked out well.  However our opinion about the IHG chain has certainly taken a hit.More</t>
   </si>
   <si>
+    <t>Jaymie22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r162276747-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -989,6 +1097,9 @@
     <t>The room was nice and clean, except we had to change rooms because ours would not get hot water for some reason. But once we switched, everything was fine. The man at the front desk was very polite that night. But the woman at the front desk in the morning were fairly rude. Didn't seem to care much about the customer. But the breakfast was very nice and good coffee too.</t>
   </si>
   <si>
+    <t>Linda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r159393234-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1016,6 +1127,9 @@
     <t>Holiday Inn Express usually means a better property. This one had good A/C and a more than adequate breakfast buffet in the lobby complete with modern art on the wall that reminded me of Sir Samuel's Restaurant on deck 3 of the Queen Mary 2 from which we'd just disembarked only days before coming here on the way back to Tucson last August. But I don't like staying on the second floor with a dog and a cat. It was extremely inconvenient to check in and even worse to check out in the pouring rain the next morning. The motel should be more considerate of guests with big dogs. They need to be on the ground floor next to a door. Another guest even laughed at our Lab scurrying along the second-floor hallway. The dog practically ran into him!More</t>
   </si>
   <si>
+    <t>Fluffandstuff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r159354004-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1145,9 @@
     <t>This place is fantastic!  I am here my husband &amp; 2 boys.  After a grueling dramatic day yesterday, we arrived here late last night.  We have traveled all over the world &amp; I have to say I was surprised when I walked into our room.  European elegance and modern whimsy... My children were exhausted, we slept great on fresh, fluffy beds.  When we woke up, we started the day with a swim in the wonderful indoor pool.  Happy kids.  Whoops we missed the free breakfast, but as I poured myself a cup of coffee a sweet lady asked if we could take cinnamon rolls &amp; bananas to go!  I have never written a review, but this place really saved us when were having a terrible time.  Thankful!More</t>
   </si>
   <si>
+    <t>TucsonHikers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r140883562-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1052,6 +1169,9 @@
     <t>We stopped for the night driving on I30 heading East.  This was a comfortable place to crash for the night after a long day's drive.  Restaurants are close by and this is a safe area close to Fort Worth right along I10.  The room was spacious and comfortable.  The breakfast was typical Holiday Inn Express and we enjoyed the scrambled eggs with pancakes combo with coffee and orange juice.  The room are modern especially the bathroom with a powerful shower for a mornign wakeup.  It was nice to have breakfast available at 6 for an early start.  Definitely a place we will stay at again in the future.  The staff was friendly and helpful.More</t>
   </si>
   <si>
+    <t>Robbierobb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r139356207-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1070,6 +1190,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>Arnold_Ziffel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r138357898-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1088,6 +1211,9 @@
     <t>This inn is a new one, sitting beside I-30.  I have never stayed with them. However, I can't help but notice that there's a fountain in front of the property, which is something fairly unusual at the express locations.  It's very pretty, until one notices that they have included the water treatment system directly behind it, and in view of everything.  The ugly piping, and those big canisters that are used for swimming pools, and obviously larger fountains were not encased in any type of cover.  It's the first installation I've seen that was quite so insensitive to the rest of the landscaping and aesthetics built with the property.  I think these inns are probably standard configurations, built to a corporate-mandated set of plans.   This is the only one I've ever seen with a fountain, and while it adds a very nice touch, couldn't they have concealed the guts to the thing behind a door or otherwise out of view?More</t>
   </si>
   <si>
+    <t>John C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r138327334-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1100,6 +1226,9 @@
     <t xml:space="preserve">There were almost all positive points-the room was more than zi expected, clean and air conditioner was quiet and cool.The breakfast seemed a little below par for a Holiday Inn Express but was adequate. Current day newspaper was good.  The staff was very pleasant, starting with welcoming chocolate chip cookie and naturally flavored (real fruit slices). In the water container. Nice touch We have new business customer nearly and will pick this location many times in the future. </t>
   </si>
   <si>
+    <t>Joe C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r132319832-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1127,6 +1256,9 @@
     <t>I've stayed in quite a few hotels and this was one of the worst experiences I've had to date. Upon arriving and checking at the front desk my fiance asked me to go take a look at the pool. It was a good thing we brought our swimsuits because it was a dark green pond color. There was no way we were going to risk getting sick by swimming in their pool. If we hadn't already paid almost 90.00 for the room I would have just left and stayed at another hotel. I then thought if we weren't able to use the pool I would just upgrade to a jacuzzi suite for an extra 56.50. Once in the room I noticed right away a terrible smell of old alcohol and cigarettes. As it turns out this is a smoking hotel and even though we requested a non smoking room we got a smoking one or at least one that smells like it. At this point I was just looking forward to relaxing in the hot tub then just going to sleep. I ran the hot tub water and got in. To my surprise and horror some black slimy mass floated up from one of the jets to join me in the tub. I cleaned out the dirty tub then tried to turn the tub on. The hot tub didn't work right and only one jet was putting out any pressure....I've stayed in quite a few hotels and this was one of the worst experiences I've had to date. Upon arriving and checking at the front desk my fiance asked me to go take a look at the pool. It was a good thing we brought our swimsuits because it was a dark green pond color. There was no way we were going to risk getting sick by swimming in their pool. If we hadn't already paid almost 90.00 for the room I would have just left and stayed at another hotel. I then thought if we weren't able to use the pool I would just upgrade to a jacuzzi suite for an extra 56.50. Once in the room I noticed right away a terrible smell of old alcohol and cigarettes. As it turns out this is a smoking hotel and even though we requested a non smoking room we got a smoking one or at least one that smells like it. At this point I was just looking forward to relaxing in the hot tub then just going to sleep. I ran the hot tub water and got in. To my surprise and horror some black slimy mass floated up from one of the jets to join me in the tub. I cleaned out the dirty tub then tried to turn the tub on. The hot tub didn't work right and only one jet was putting out any pressure. I never ended up using the broken dirty hot tub and so one would assume the fees for the hot tub would be credited back. The next day I spoke with staff and they assured me someone would call me and that I wouldn't be charged. I checked my account today and found that in fact I was charged for this "upgrade" so I called the hotel and spoke with Prem Panchal or as he likes to be called on the phone "Nick". Prem told me that since I used priceline he fealt I got "A Good Deal" and that he wasn't going to issue a refund for the broken hot tub because priceline only paid him 60.00 for the room while I paid close to 90.00. I dont know what the priceline cost of the room has to do with a broken hot tub but that's what Prem said. My fiance who is the sweetest girl you could meet tried calling and discussing the matter with Prem but was hung up on.  =(More</t>
   </si>
   <si>
+    <t>tobyschoonover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r122014043-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1275,9 @@
   </si>
   <si>
     <t>December 2011</t>
+  </si>
+  <si>
+    <t>PolarBearTx</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r121883176-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1171,6 +1306,9 @@
 The business 'center' was a couple of computers...As mentioned in the review title, there were 5 of us, and not all places can accomodate all of us in one room.   But no problems here.   We were able to stay in a room with 2 beds and  a pull out couch bed.  First the room, the beds were comfortable, the room was very clean and actually very new looking.   I did not look to see when the hotel was built, but it appears to be relatively new.  There was a microwave and frig in the room, we didn't use them, but I looked at them and they were clean.   We did not use the internet, but they have it, so I can not speak to how that worked.   The TV worked fine.The hotel itself is not a large one, 3 floors, and if I just had to find something to complain about, the parking lot is rather small as well, we ended up having to park around the back of the hotel.  But that's really nitpicking, as there were available spots in the back, so its not like we were fighting for a spot.I did not use the fitness room, but looked in and there appeared to be 3 machines visible from the door, a treadmill, eliptical machine and stationary bike.   I saw the pool we also did not use, small but indoor, and so still in use.The business 'center' was a couple of computers up to the left just inside the hotel across from the front desk.  The center looked clean, new machines and all that, however I do prefer business centers to be in a separate room in case you are having to enter sensitive account information to check on something.We did eat the hot breakfast.   I had biscuit with gravy, the sausage filled kind, that I love, and an omelet, and ham.   The family also ate cinamon rolls, toast, cereal, and we had juice and milk.  All the food tasted good.  My boys like waffles, which we did not see, but that may something they offer on another day or not, either way we left full.About the breakfast area, nice and neat, however most of the seating was at a single high sitting table with bar stools that seated about 14.   Other than that there are just 2 or 3 other tables, which we did obtain one.   Just an observation, not a complaint, although I imagine most familiies don't necessary want to eat breakfast at a table with people they don't know.  We didn't have time to explore much of the surrounding area, because we were just passing through, but the area around is nice, with lots of stores that my wife noticed like JC Penney, Kohls, we did stop for ice cream at Chick-fil-a and there were others I cannot recall.   A nice area we both commented.   Yes, there is road construction on the interstate, but we had no issues.Staff was friendly at check-in, did not require staff for anything during stay.   On the Kid's Activity rating, I'm not sure what they meant, it has a pool, so I put average.  It's not a knock or anything on the hotel.   If we find ourselves in the area again, we would definitely stay here.More</t>
   </si>
   <si>
+    <t>OU4EVR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r119879545-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1193,6 +1331,9 @@
   </si>
   <si>
     <t>I used my points to stay here with my family while we were moving. Overall it's a pretty hotel. Modern amenities and such.The beds aren't too comfortable but what hotel bed is? The rooms are nice but could be a little bigger when you have your family with you.Breakfast is okay. For $107/night you'd think they'd have a better selection.My biggest gripe is that for a new hotel they allow smoking. We continued smelling it even though our floor was supposed to be nonsmoking. I complained but the owners are not from this country and seem to not care as long as they're renting rooms.More</t>
+  </si>
+  <si>
+    <t>EsKezzy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r118903841-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1224,6 +1365,9 @@
 Our room was a handicapped accessible room. Overall this was fine but it was a little difficult at shower time because there is no edge at the bottom of the shower. My children kind of had trouble keeping the water...We stayed at this hotel for 5 days and really it set the standard for our trip. We would stay here again. Actually after staying here we were all disappointed with the other hotels we stayed at on this trip.The staff was super helpful in helping us choose a room and with giving directions. The staff was all very friendly and inviting to talk to. Everyone seemed to like their job. We stayed in the family suite, which is HUGE. Seriously, this was bigger than my 1st apartment. Walking in, it's like a large hotel room with a table and convertible sofa and TV/dresser. This leads into a slightly divided bedroom with a king size bed and another tv/dresser (kind of odd if you want to watch both these TVs at the same time). There is a large bathroom that connects to the 'master' bedroom with another king size bed and tv. The room also has a small sink, microwave, and moderate sized 'dorm' fridge.They had free wi-fi but at times the connection wasn't that consistent or great. Free (and plentiful) parking. Free breakfast. They did have an exercise room and indoor pool but we didn't use those.Our room was a handicapped accessible room. Overall this was fine but it was a little difficult at shower time because there is no edge at the bottom of the shower. My children kind of had trouble keeping the water in the shower and I think we gave the bathroom a good rinsing down near the toilet. (if you have young children make sure you request not to have the handicap room on the first floor b/c there is no bathtub). The removable and adjustable height shower head was nice. Breakfast was good. The woman who works the breakfast area was super nice and friendly, especially to the children. They have a really cool automatic pancake maker (just push a button) that my children loved. The breakfast area was stocked well. My only complaint about the breakfast area is that there is only 1 table to seat a family. There is a very large long table with lots of high chairs (not good for young children) and then there are some chairs with very small talbles. Seating for more than a couple is difficult.Location was good. The freeway is being worked on right now and we discovered that one exit past the one google maps says to take, drops you off right at the hotel. Leaving is tricky, unless you make a somewhat illegal left turn out of the side driveway (which we did every time). It's very close to the newer shopping - so lots of places to buy stuff and food.More</t>
   </si>
   <si>
+    <t>Roxi H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r118243835-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1402,9 @@
   </si>
   <si>
     <t>While in Weatherford on business I stayed at the Holiday Inn Express and found the staff to be exceptional in their professionalism, helpfulness, and friendliness. The hotel is clean and comfortable and is a good place to stay for the business traveler as well as for families. The room had a microwave and a dorm-sized fridge as well as a coffee maker and flat-screen TV. Breakfast is the standard Holiday Inn Express fare, with the pushbutton pancake maker, cinnamon rolls, biscuits, eggs or omelets, sausage, ham, or bacon, plus pastries, bagels, yogurt, cereal, etc. If I were to change anything about this hotel, it would be the AC. A wall thermostat is preferable to the AC unit with the dials; I find it hard to get the room comfortable and not either too warm or too cool. Oh, I'd probably add in a bigger variety of fresh fruit. One of the nicer things about the hotel is cookies and ice water in the lobby, and the water has fruit added- oranges, lemons, or limes. Very refreshing on a hot, hot summer day!More</t>
+  </si>
+  <si>
+    <t>MonkeyOnTheWing</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r115596575-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1290,6 +1437,9 @@
 Although our rear room was fairly quiet, there was considerable all-night glare from the motel's truck parking lot, itself another bad sign.  In conclu- sion, skip this property and probably all Weatherford too, until the massive I-20 widening is complete and the management does some...Because the Texas Hwy Dept &amp; the City of Weatherford have totally botched convenient business access during construction along I-20 here, this Holiday Inn Express is nearly inaccessible, especially for westbound traffic.  The overpasses, service roads, driveways and misc infrastructure are in total disarray and are dangerous for visitors to figure their maze of poorly-signed, narrow, twisting detour routes.  To find this motel, be very, very careful navigating construction zones, or try and find a circuitous back way using Causbie Rd, Lockwood Ln and other streets behind the shopping ctr.  GPS devices will not help, either, in this situation. The motel property itself is poorly designed and its entrances and drive aisles feature some steep hills and other challenging geometrics.  The staff however was polite and helpful and seemed to appreciate anyone who managed the obstacle course to arrive safely at the front desk.  There was a huge iced lemonade dispenser in the lobby for guests.  Our room's door mechanism would not solidly lock and they gave us another room without hesitation.  But there were cobwebs in the corners of the breakfast area and other signs of 'absentee-manage- ment'-type neglect and lack of quality assurance.  Although our rear room was fairly quiet, there was considerable all-night glare from the motel's truck parking lot, itself another bad sign.  In conclu- sion, skip this property and probably all Weatherford too, until the massive I-20 widening is complete and the management does some major housecleaning.More</t>
   </si>
   <si>
+    <t>acker11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r46419811-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1458,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>musicjoshmusic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r36640103-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1324,6 +1477,9 @@
   </si>
   <si>
     <t>July 2009</t>
+  </si>
+  <si>
+    <t>gotoptions</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r29498690-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1846,43 +2002,47 @@
       <c r="A2" t="n">
         <v>58700</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>16321</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1902,50 +2062,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58700</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1963,50 +2127,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58700</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2020,50 +2188,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58700</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>71476</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2075,56 +2247,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58700</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>10061</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2136,56 +2312,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58700</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2205,50 +2385,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58700</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>3852</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2268,50 +2452,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58700</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>41161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2331,50 +2519,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58700</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>156160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2390,56 +2582,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58700</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>156161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2451,56 +2647,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58700</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>137118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2512,56 +2712,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58700</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>156162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2573,56 +2777,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58700</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>156163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2642,50 +2850,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58700</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>454</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>145</v>
       </c>
-      <c r="J15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" t="s">
-        <v>147</v>
-      </c>
-      <c r="L15" t="s">
-        <v>148</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>133</v>
-      </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2705,50 +2917,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58700</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2762,41 +2978,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58700</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>399</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
@@ -2813,56 +3033,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58700</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2882,50 +3106,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58700</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>156166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2941,56 +3169,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58700</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>156167</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3006,56 +3238,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58700</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>9568</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3075,50 +3311,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58700</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>156168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3136,47 +3376,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58700</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156169</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
@@ -3205,41 +3449,45 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58700</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>156170</v>
+      </c>
+      <c r="C24" t="s">
+        <v>229</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
@@ -3258,50 +3506,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58700</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>156171</v>
+      </c>
+      <c r="C25" t="s">
+        <v>235</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3319,7 +3571,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -3332,37 +3584,37 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3378,56 +3630,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="X26" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="Y26" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58700</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>13602</v>
+      </c>
+      <c r="C27" t="s">
+        <v>251</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3449,56 +3705,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="X27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="Y27" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58700</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>5189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3510,56 +3770,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="X28" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58700</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>116775</v>
+      </c>
+      <c r="C29" t="s">
+        <v>271</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O29" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3581,56 +3845,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="X29" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58700</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>156172</v>
+      </c>
+      <c r="C30" t="s">
+        <v>280</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3652,56 +3920,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="X30" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Y30" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58700</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>156173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>290</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3725,41 +3997,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58700</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>156174</v>
+      </c>
+      <c r="C32" t="s">
+        <v>296</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
@@ -3788,50 +4064,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58700</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>15618</v>
+      </c>
+      <c r="C33" t="s">
+        <v>302</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="J33" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3855,50 +4135,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58700</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>310</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3922,41 +4206,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58700</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>156176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>317</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
@@ -3985,50 +4273,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58700</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>18228</v>
+      </c>
+      <c r="C36" t="s">
+        <v>323</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4050,13 +4342,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
@@ -4069,37 +4361,37 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4123,50 +4415,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58700</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>156177</v>
+      </c>
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4188,47 +4484,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="X38" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58700</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>156178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>347</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -4257,50 +4557,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58700</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>358</v>
+      </c>
+      <c r="C40" t="s">
+        <v>353</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="J40" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="K40" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4322,47 +4626,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="X40" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="Y40" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58700</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>363</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="J41" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -4391,50 +4699,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58700</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>156180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>369</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="J42" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4458,50 +4770,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58700</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>156181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>377</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="J43" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K43" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4525,50 +4841,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58700</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>40909</v>
+      </c>
+      <c r="C44" t="s">
+        <v>384</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="J44" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="K44" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="O44" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4592,41 +4912,45 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58700</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>364</v>
+      </c>
+      <c r="C45" t="s">
+        <v>391</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="J45" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="K45" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="L45" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -4655,50 +4979,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58700</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>26246</v>
+      </c>
+      <c r="C46" t="s">
+        <v>396</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="K46" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4720,56 +5048,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="X46" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="Y46" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58700</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>156182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>406</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="J47" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="K47" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="L47" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4793,50 +5125,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58700</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>156183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>413</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="J48" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="K48" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4860,41 +5196,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58700</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>156184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>420</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="J49" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="K49" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="L49" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
@@ -4921,56 +5261,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="X49" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="Y49" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58700</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>156185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>429</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="J50" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="K50" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="L50" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -4994,50 +5338,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58700</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>156186</v>
+      </c>
+      <c r="C51" t="s">
+        <v>437</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="J51" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="K51" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L51" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="O51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5059,7 +5407,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52">
@@ -5072,37 +5420,37 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="J52" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="K52" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="L52" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="O52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5122,50 +5470,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58700</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>156187</v>
+      </c>
+      <c r="C53" t="s">
+        <v>450</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="J53" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="K53" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="L53" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5183,56 +5535,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="X53" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="Y53" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58700</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>156188</v>
+      </c>
+      <c r="C54" t="s">
+        <v>459</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="J54" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="K54" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="L54" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="O54" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5256,50 +5612,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58700</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>156189</v>
+      </c>
+      <c r="C55" t="s">
+        <v>466</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="J55" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="K55" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="L55" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5323,50 +5683,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58700</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>156190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>473</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="J56" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="K56" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="L56" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="O56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5390,7 +5754,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_385.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_385.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="710">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,174 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>carnbravila</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r608909500-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>56854</t>
+  </si>
+  <si>
+    <t>1216780</t>
+  </si>
+  <si>
+    <t>608909500</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Nice Place!</t>
+  </si>
+  <si>
+    <t>I was in town for a wedding and this was the hotel everyone was staying, which worked out nice.  My room was clean and modern (I was given a handicapped room for no specific reason).  Great sleep both nights I stayed.  Shower was the only thing in the room that was not ideal...it was actually uncomfortable with it's needle-like jets (maybe it's a water-saving measure?).  Nice staff and lobby for hanging out with fellow wedding guests.  Within walking distance to several restaurants.  Convenient to highway and nice parking lot.  Breakfast was really nothing to write home about...Fluffy little omelet-like things, luke-warm sausages, and assorted rolls and cereals.  It was hot outside (100+) but the air conditioning kept everything cool.  Hotel is on the edge of a large commercial area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I was in town for a wedding and this was the hotel everyone was staying, which worked out nice.  My room was clean and modern (I was given a handicapped room for no specific reason).  Great sleep both nights I stayed.  Shower was the only thing in the room that was not ideal...it was actually uncomfortable with it's needle-like jets (maybe it's a water-saving measure?).  Nice staff and lobby for hanging out with fellow wedding guests.  Within walking distance to several restaurants.  Convenient to highway and nice parking lot.  Breakfast was really nothing to write home about...Fluffy little omelet-like things, luke-warm sausages, and assorted rolls and cereals.  It was hot outside (100+) but the air conditioning kept everything cool.  Hotel is on the edge of a large commercial area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r568893343-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>568893343</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another great Holiday Inn Express! My room was clean! Bed was great! A/c worked well! Rooms were quiet. Needed some much needed rest and got it here! Lobby area is beautiful and front desk clerk was very nice! </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r597330244-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>597330244</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>A Bit Difficult to Find</t>
+  </si>
+  <si>
+    <t>We had an overall good stay but it was difficult to figure out how to get there from Interstate 20. Breakfast was good but the rooms were a bit noisy.  I would recommend getting a room on the south end of the hotel, as it is further from the Interstate.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r542733746-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>542733746</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>Impressed with Service</t>
+  </si>
+  <si>
+    <t>The hotel was CLEAN, modern, very stylish and the service was excellent. I can't imagine the hotel was very old as it was more updated than most I've seen. Kimberly (?) and Rhonda delivered what I consider the best service - profess., efficient, lively - I've had in any hotel I have stayed at during my travels (and I'm a traveller!). This hotel even had a sauna which I thought was a nice addition in the gym. Location is A+ as well - there is a large retail center next door with restaurants and shopping. Also, easy access to the highway ++. I'll be back if I drive thru Texas again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>The hotel was CLEAN, modern, very stylish and the service was excellent. I can't imagine the hotel was very old as it was more updated than most I've seen. Kimberly (?) and Rhonda delivered what I consider the best service - profess., efficient, lively - I've had in any hotel I have stayed at during my travels (and I'm a traveller!). This hotel even had a sauna which I thought was a nice addition in the gym. Location is A+ as well - there is a large retail center next door with restaurants and shopping. Also, easy access to the highway ++. I'll be back if I drive thru Texas again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r535518672-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>535518672</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>In town for funeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a good experience here. Had a few ants in our room and light switch is connected to all the lights in the room and when turned off you cannot charge phone on night stand near you. Otherwise good </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r522411477-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>522411477</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay, Breakfast selection scarce</t>
+  </si>
+  <si>
+    <t>Rooms and beds are typical of any other holiday inn. Nothing fancy. Breakfast on the other hand was a big let down. They had run out of their hot goods, sausage, eggs,   etc. We ended up having cold cereal.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Rooms and beds are typical of any other holiday inn. Nothing fancy. Breakfast on the other hand was a big let down. They had run out of their hot goods, sausage, eggs,   etc. We ended up having cold cereal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r520357465-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>520357465</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Clean welcoming place to spend a night...but...</t>
+  </si>
+  <si>
+    <t>In my experience this chain always delivers on cleanliness, functionality etc - it does what it says on the box - but in this case the quality of maintenance let them down. We booked two rooms - one had an air-conditioner so noisy that it overpowered everything. Why could that not have been checked BEFORE we check in and unpacked. I was given another room that had a silent air-conditioner but the staff had to phone the manager to find out where the controls were located. I tried to call down but the phone almost fell apart in my hands - again no one had checked the quality of the room before the guest checked in. We tried to use the on-site guest laundry but the front office had run out of washing powder so laundry proved impossible. A really good hotel chain badly let down on this occasion by unprofessional staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded September 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2017</t>
+  </si>
+  <si>
+    <t>In my experience this chain always delivers on cleanliness, functionality etc - it does what it says on the box - but in this case the quality of maintenance let them down. We booked two rooms - one had an air-conditioner so noisy that it overpowered everything. Why could that not have been checked BEFORE we check in and unpacked. I was given another room that had a silent air-conditioner but the staff had to phone the manager to find out where the controls were located. I tried to call down but the phone almost fell apart in my hands - again no one had checked the quality of the room before the guest checked in. We tried to use the on-site guest laundry but the front office had run out of washing powder so laundry proved impossible. A really good hotel chain badly let down on this occasion by unprofessional staff.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r515882444-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
-    <t>56854</t>
-  </si>
-  <si>
-    <t>1216780</t>
-  </si>
-  <si>
     <t>515882444</t>
   </si>
   <si>
@@ -174,15 +327,6 @@
     <t>We only stayed one night while visiting family, so we really only slept there.  Clean, modern appearance and nice staff.  The hotel is right off the highway and there are plenty of places to eat, as well as a Target just down the street.  Our room was as close to the elevator as you could get and we were never disturbed.  Quiet, peaceful sleep.  The breakfast area looked spacious and comfortable, but we ate at the Cracker Barrel next door (not really walking distance).  Will definitely stay here in the future.</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>CBGeorgia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r493121005-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -207,9 +351,6 @@
     <t>We were passing through town, and called a couple of hotels in Weatherford to see what was available. The Holiday Inn Express had a room with 2 queen beds, a pool inside, and breakfast. The lobby and room were clean. The pool room was open until 11 pm, so I had a night time swim to relax before bedtime. It was wonderfully warm, not only in The water, but also the pool room! That is just what I want when I am in My bathing suit!We had a great night of rest, in a quiet part of the 2nd floor. When we woke we had a very nice breakfast selection before we hit the road.All in all it was a great experience!More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r477847959-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -228,12 +369,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Nora O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r476076193-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -261,9 +396,6 @@
     <t>The only struggle we had at this hotel was checking in; the attendant was away from the desk when we arrived and another guest had been waiting. When we called the hotel, she arrived promptly.Our room was great. It had two rooms two beds and a pullout sofa, and three tvs. It was a big family's dream.More</t>
   </si>
   <si>
-    <t>Jennifer J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r473710277-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -282,7 +414,106 @@
     <t>This hotel is right off of 20 near Target and several restaurants making it a great location. The staff is friendly and were quick with check in too. The rooms are spacious and beds are comfortable-no complaints here! More</t>
   </si>
   <si>
-    <t>dsmt05</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r467394697-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>467394697</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Greatly Disappointed!!</t>
+  </si>
+  <si>
+    <t>When I called to make my reservation I asked if the heated indoor pool and spa was working cause my husband has diabetic leg and feet pain and the heated pool helps his pain.  Oh Yes!! was the answer I got so I booked a room.   When we arrived the pool and spa was CLOSED!!.  Complained to the front desk and did get a 10% discount but if I'd know up front would have booked at another hotel with a heated pool that was actually operating.  Also our deadbolt lock would work.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candacee M, General Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>When I called to make my reservation I asked if the heated indoor pool and spa was working cause my husband has diabetic leg and feet pain and the heated pool helps his pain.  Oh Yes!! was the answer I got so I booked a room.   When we arrived the pool and spa was CLOSED!!.  Complained to the front desk and did get a 10% discount but if I'd know up front would have booked at another hotel with a heated pool that was actually operating.  Also our deadbolt lock would work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r466623346-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>466623346</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Highly Disappointed</t>
+  </si>
+  <si>
+    <t>First things first. I was relaxing in the room when a housekeeper came and knocked on my door once (about 5:30 in the evening) and then proceeded to pull hard on the door about 8 times. I finally yanked the door open and she asked me if my shower curtain was ok!!! What the heck??? It was very sketchy. The fridge in our room didn't work, phone didn't work, there was a wet pair of men's underwear in the pool area and gum in the bottom of the pool. The hot tub didn't work and was ice cold. The pool was nice and warm though.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candacee M, General Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>First things first. I was relaxing in the room when a housekeeper came and knocked on my door once (about 5:30 in the evening) and then proceeded to pull hard on the door about 8 times. I finally yanked the door open and she asked me if my shower curtain was ok!!! What the heck??? It was very sketchy. The fridge in our room didn't work, phone didn't work, there was a wet pair of men's underwear in the pool area and gum in the bottom of the pool. The hot tub didn't work and was ice cold. The pool was nice and warm though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r457182470-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>457182470</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Excellent business hotel</t>
+  </si>
+  <si>
+    <t>Do yourself a favor and call this your work week home! I travel monthly to the area for oil and gas work and always stay here. Location and access are great. Staff are super hospitable and rooms are top notch. Always a little more expensive than the rest, but for a reason! Highly recommend the indoor pool and sauna ++</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r455092230-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>455092230</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Always a good stay</t>
+  </si>
+  <si>
+    <t>My colleagues and I come thru Weatherford quite often for work and always stay at this hotel. Great service and rooms (quiet, spacious and well-appointed). I've tried a few of the other hotels in town, but like this one the best. Also, they have solid free weights which is hard to find in a roadside hotel!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r442753358-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>442753358</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Great Weekday Stay!</t>
+  </si>
+  <si>
+    <t>Room was clean, quiet and comfortable.  Staff is very friendly and helpful.  Will definittely stay here again when in this area.  Breakfast area was nice &amp; food was better than standard continental.  Stayed in December &amp; lobby smelled GREAT, decorated for Christmas.  Very pleasant stay, convenient location. Washer &amp; dryer available, fridge &amp; microwave in room.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r436253737-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -303,9 +534,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>Jack M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r436009083-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -321,9 +549,6 @@
     <t>Hotel allowed the Family to block at several rooms at a reduced rate.  It has easy access off the highway and easy to find.  The check in was very easy and the clerk was helpful and courteous.  The room was comfortable and very clean.  Everything worked.  Excellent bed with several big pillows.  AC worked good.  The free breakfast was a full meal with various options.  It was better than most hotel buffets.  The overall experience was excellent.</t>
   </si>
   <si>
-    <t>Steven R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r434579627-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -342,9 +567,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>CPA2GO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r420087899-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -372,9 +594,6 @@
     <t>Although the property appears nice and the front desk personnel are friendly, be very cautious!!! We were double billed for our two night stay!!!! When we discovered this the day after we left and contacted the hotel, they admitted there was an error and said they would correct it and call us back. That was September 8th! No one has returned our call or replied to email inquiries. We had to turn this over to Amex who says it can take 6-8 weeks. In the meantime, we are out $240!!!More</t>
   </si>
   <si>
-    <t>Danny J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r403808205-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -405,7 +624,217 @@
     <t>I tried this hotel on the recommendation of a family member (as I usually stay on other properties when I'm in weatherford) and did I ever regret it. After checking in I made my way to my room and upon entering my room I was immediately overcome with a musty moldy smoke stink , return to the desk , staff was very accommodating , and moved me across the hall ...,I go in same odor... Return with bags in hand to the desk , young man calls the boss and offers one last suite and its the "jaccuzi " suite ,smells more like deodorizer. Mattress was breaking down lumpy and uncomfortable , front facing rooms face the interstate and expanded service roads to accommodate growing traffic. And to top it all off I left my YETI tall tumbler in the bathroom and when I called to retrieve it ,I'm told it's not in the lost and found.... That's because it's in the housekeepers car!!!I will never stay here again and unless you prefer old rundown hotels, that have less than honest help id try the half dozen newer nice hotels in weatherford !!!More</t>
   </si>
   <si>
-    <t>Greekprof7</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r388543197-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>388543197</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Last Minute Trip</t>
+  </si>
+  <si>
+    <t>Came up on a last minute trip on 4th of July weekend and was greeted like we were one of the family. The staff are kind and helpful and the room was clean and tidy! Would recommend this hotel over any other!!(PS always helpful to have a complimentary breakfast and not have to go somewhere for it!)</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r386077702-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>386077702</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Some reviews stated this was hard to find..not so. We couldn't have missed it. Friendly staff, great room, and the breakfast I've come to expect from Holiday Inn. Tip: If your a light sleeper ask for a room on the non interstate side. No concern for us.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r377964138-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>377964138</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Room was large - included a sitting area, microwave and small fridge.  Sleeping was comfortable, but for some, the proximity to the interstate could cause noise issues.  Getting to the hotel is a little tough as one reviewer mentioned.  Knowing how to use Texas  U turns help.  Also an awkward driveway to negotiate.  Front desk woman at afternoon check in was just delightful (a fellow hoosier) and took care to help make sure my points for the rewards program were listed.  My work travel site profile had been erased and that info wasn't sent to the hotel.  She also made sure you were aware of all the amenities of the hotel.  Typical HI breakfast with those awesome cinnamon rolls.  Overall, I would stay there again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Room was large - included a sitting area, microwave and small fridge.  Sleeping was comfortable, but for some, the proximity to the interstate could cause noise issues.  Getting to the hotel is a little tough as one reviewer mentioned.  Knowing how to use Texas  U turns help.  Also an awkward driveway to negotiate.  Front desk woman at afternoon check in was just delightful (a fellow hoosier) and took care to help make sure my points for the rewards program were listed.  My work travel site profile had been erased and that info wasn't sent to the hotel.  She also made sure you were aware of all the amenities of the hotel.  Typical HI breakfast with those awesome cinnamon rolls.  Overall, I would stay there again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r373832658-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>373832658</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Good Chance I'll Be Back</t>
+  </si>
+  <si>
+    <t>Getting to the hotel is a bit of a chore, one way streets make it inconvenient if you want to go out for the evening and come back.Clean property, friendly people. There was an unattended cart with dirty towels in the elevator, which was off putting initially, but the halls and room were clean.Great breakfast. Always nice when you have a choice between sausage and bacon (I chose both) for breakfast.No television channel list and no Showtime/HBO listing. I had to catch up on Game Of Thrones, so that was important. ;)I normally only stay at Hampton or HIE. If I'm through here again it's more than likely I'll stay at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Getting to the hotel is a bit of a chore, one way streets make it inconvenient if you want to go out for the evening and come back.Clean property, friendly people. There was an unattended cart with dirty towels in the elevator, which was off putting initially, but the halls and room were clean.Great breakfast. Always nice when you have a choice between sausage and bacon (I chose both) for breakfast.No television channel list and no Showtime/HBO listing. I had to catch up on Game Of Thrones, so that was important. ;)I normally only stay at Hampton or HIE. If I'm through here again it's more than likely I'll stay at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r365906757-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>365906757</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>No more</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express Weatherford. Texas. Located on frontage road to Interstate 20 = NO SLEEP. Office staff and owners might need a little help with getting along with Americans. Place is clean but the noise will kill ya. Also I have to keep writing in order to use up 200 characters.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express Weatherford. Texas. Located on frontage road to Interstate 20 = NO SLEEP. Office staff and owners might need a little help with getting along with Americans. Place is clean but the noise will kill ya. Also I have to keep writing in order to use up 200 characters.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r363207939-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>363207939</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Overdue review from years ago. Great hotel!</t>
+  </si>
+  <si>
+    <t>This review is long overdue for this particular location. What a wonderful experience we had several years ago as we visited a dear friend for her wedding. Clean, accommodating and very refreshing. The hotel was new at the time and the convenient location made the highway and local eateries easily accessible. HI Express hotels are a great stay and are affordable.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r343675799-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>343675799</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Nice property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly front desk staff during check in.  Hotel was clean and looked new or recently remodeled.  Lobby and breakfast area were very neat and clean.  Bed was comfortable with four pillows to chose from.  Larger room with mini bar and 'living-room' area.   </t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r339535475-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>339535475</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Necessary evil</t>
+  </si>
+  <si>
+    <t>Rated poor but I am hard on hotels. Really it's much more used than most Holiday Inn Express stops. It has had a ton of oilfield traffic but with the crash now has low occupancy. Rooms were not dirty but just had a very used feel and not very inviting.  I would stay here again... because there is not a whole lot of choice in Weatherford.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Rated poor but I am hard on hotels. Really it's much more used than most Holiday Inn Express stops. It has had a ton of oilfield traffic but with the crash now has low occupancy. Rooms were not dirty but just had a very used feel and not very inviting.  I would stay here again... because there is not a whole lot of choice in Weatherford.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r336422255-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>336422255</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>Be forewarned!</t>
+  </si>
+  <si>
+    <t>I travel 1-2 times per month for business and I generally seek out Holiday Inns for their friendliness and consistency.  So, I didn't think twice about Holiday Inn for my family Christmas vacation.  However, the Holiday Inn in Weatherford Texas is terrible!  There was a mistake in making my reservation.  On biz travel, it happens every once in a while, but has never been an issue with cancellation or revision.   And, when I spoke with the person at the front desk, she also said it wouldn't be an issue (happens all the time she says).  BUT, to my surprise, the manager at the hotel charged us anyway.  Her issue, in her own words(!); they do not like working with booking.com and other online reservation services.  She said she could provide the refund given the circumstances, but refused simply based on the fact that we didn't book directly with her hotel.  In this case, it was a reservation for two rooms, for my family of five.  She wouldn't even refund one of the rooms.  And it was 3-days before Christmas (Grinch!).  Be forewarned: if you book this hotel, pray that nothing comes up.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded January 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2016</t>
+  </si>
+  <si>
+    <t>I travel 1-2 times per month for business and I generally seek out Holiday Inns for their friendliness and consistency.  So, I didn't think twice about Holiday Inn for my family Christmas vacation.  However, the Holiday Inn in Weatherford Texas is terrible!  There was a mistake in making my reservation.  On biz travel, it happens every once in a while, but has never been an issue with cancellation or revision.   And, when I spoke with the person at the front desk, she also said it wouldn't be an issue (happens all the time she says).  BUT, to my surprise, the manager at the hotel charged us anyway.  Her issue, in her own words(!); they do not like working with booking.com and other online reservation services.  She said she could provide the refund given the circumstances, but refused simply based on the fact that we didn't book directly with her hotel.  In this case, it was a reservation for two rooms, for my family of five.  She wouldn't even refund one of the rooms.  And it was 3-days before Christmas (Grinch!).  Be forewarned: if you book this hotel, pray that nothing comes up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r334123297-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>334123297</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Going downhill so fast.</t>
+  </si>
+  <si>
+    <t>This is one of the newer hotels in town and we have stayed here three times over the last 2 years with good experiences.  But wow, how things have changed in just a short time.  Our latest stay was candidly shocking.  The hotel is almost empty yet they chose to give us a room with massive deferred maintenance -- Room 322.  The bathroom toilet is disgusting and has been recaulked several times resulting in about an inch of dirty, nasty caulk around it.  The floorboards in the bathroom are torn from the wall and smashed in several places. Then on the second day of our stay we returned from a long day to find the room was not cleaned, the beds were not made and the towels were not replaced.  When we called downstairs to the front desk we were literally told "oh yeah, we did not get to the third floor today, sorry."  Are you kidding me.  So sad to let this relatively new hotel fall into such disrepair and disarray.  The management and ownership need to wake up. We will not be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>This is one of the newer hotels in town and we have stayed here three times over the last 2 years with good experiences.  But wow, how things have changed in just a short time.  Our latest stay was candidly shocking.  The hotel is almost empty yet they chose to give us a room with massive deferred maintenance -- Room 322.  The bathroom toilet is disgusting and has been recaulked several times resulting in about an inch of dirty, nasty caulk around it.  The floorboards in the bathroom are torn from the wall and smashed in several places. Then on the second day of our stay we returned from a long day to find the room was not cleaned, the beds were not made and the towels were not replaced.  When we called downstairs to the front desk we were literally told "oh yeah, we did not get to the third floor today, sorry."  Are you kidding me.  So sad to let this relatively new hotel fall into such disrepair and disarray.  The management and ownership need to wake up. We will not be back!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r333471082-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -423,21 +852,9 @@
     <t>As of today, the HI Express in Weatherford is the #7 TA hotel in town. This was my fifth trip to Weatherford in about three years and my fifth hotel. I'd say the ratings are pretty accurate (although it has an average of 4 rather than my 3). Check-in was smooth; the staff seemed fine. The room was spacious enough. The dresser/TV stand/microwave-fridge holder was a little on the beat up side; one of the drawer handles was ready to come off and the door behind which the fridge sat would never close all the way. The bathroom was clean except for around the edges: some of the caulking and edging was a little on the musty side. The bed was comfortable enough but the pillows were lacking in firmness (even the ones labeled as such). The breakfast was decent and expected HI Express fare. If you stay here, be aware of the alternate exit of the parking lot which will head you south then west so that you don't have to take the frontage road every time you leave the hotel.MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
-    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded January 4, 2016</t>
-  </si>
-  <si>
-    <t>Responded January 4, 2016</t>
-  </si>
-  <si>
     <t>As of today, the HI Express in Weatherford is the #7 TA hotel in town. This was my fifth trip to Weatherford in about three years and my fifth hotel. I'd say the ratings are pretty accurate (although it has an average of 4 rather than my 3). Check-in was smooth; the staff seemed fine. The room was spacious enough. The dresser/TV stand/microwave-fridge holder was a little on the beat up side; one of the drawer handles was ready to come off and the door behind which the fridge sat would never close all the way. The bathroom was clean except for around the edges: some of the caulking and edging was a little on the musty side. The bed was comfortable enough but the pillows were lacking in firmness (even the ones labeled as such). The breakfast was decent and expected HI Express fare. If you stay here, be aware of the alternate exit of the parking lot which will head you south then west so that you don't have to take the frontage road every time you leave the hotel.More</t>
   </si>
   <si>
-    <t>bowlerwife</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r329846216-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -465,9 +882,6 @@
     <t>I talked to the desk clerk on the phone and should have taken from that call that she wasn't the friendly one around.  The morning desk clerk was very nice.  The hotel is ok...the pool area was so steamy you couldnt even see.  Never saw a pool area so steamy.  The breakfast was ok but the usual at a Holiday Inn Express.  No restaurants within walking distance.  More</t>
   </si>
   <si>
-    <t>AngstBane</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r325100966-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -489,9 +903,6 @@
     <t>The hotel is right on I-20 and south of the town.  Downtown is about 5 miles north.  But most of the shopping is along Main street (Hwy 51) and this hotel is just off Main Street on the I-20 frontage road.  Beside it and across the freeway with easy (although busy trafficked intersection) is lots of shopping such as Kohls, Belk, JC Penny, Michaels, Lowes, and much more.  Lots of restaurants all around.I like the room.  It was a clean but worn room with good quality amenities such as shampoo, conditioner, hair dryer, and such.  Stand-up shower was larger than expected. Highway travelers would find this convenient.  Visitors to Weatherford, and the well-known and worthwhile First Monday flea market, would have a short drive while staying in a good shopping area.More</t>
   </si>
   <si>
-    <t>Laura C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r324301694-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -507,12 +918,6 @@
     <t>stayed here 1 night.  The staff was friendly.  The room was clean.  The beds were soft enough for a hotel.  Breakfast was a typical hotel breakfast.  Overall exactly what I expect from a Holiday inn express.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Lanternhill</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r316460668-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -531,7 +936,124 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Jennifer R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r313963155-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>313963155</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Absolutely Disgusting!</t>
+  </si>
+  <si>
+    <t>Myself, my husband, and our 1 month old son stayed here one night and were not happy at all. The front desk staff were completely rude when we walked in- I stood at the desk for about a minute as she was texting and messing with her phone, then she finally looked up and walked over to the computer. We did not get the upstairs room we requested, and she told us our ground floor room was in the process of being cleaned... and it was 4pm! We were asked to wait in the lobby until the housekeeper finished. Our room was filthy- hair on the floor in the bathroom, dust all over the lamps and night stand, sticky residue all over the remote, hair on our bedsheets! Our shower base was coming apart from the floor, and there was mold at the seem. Tiles in the bathroom were cracked and the shower railing was broken.Definitely would not recommend staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Myself, my husband, and our 1 month old son stayed here one night and were not happy at all. The front desk staff were completely rude when we walked in- I stood at the desk for about a minute as she was texting and messing with her phone, then she finally looked up and walked over to the computer. We did not get the upstairs room we requested, and she told us our ground floor room was in the process of being cleaned... and it was 4pm! We were asked to wait in the lobby until the housekeeper finished. Our room was filthy- hair on the floor in the bathroom, dust all over the lamps and night stand, sticky residue all over the remote, hair on our bedsheets! Our shower base was coming apart from the floor, and there was mold at the seem. Tiles in the bathroom were cracked and the shower railing was broken.Definitely would not recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r309024847-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>309024847</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I am a patron of Holiday Inn's and this property was very helpful and friendly offering a lot of info on local attractions and food choices. I had a great stay as my bed was very comfortable and the AC was just right to help me stay comfortable. The room was very clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r299873538-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>299873538</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Great 1 night stay</t>
+  </si>
+  <si>
+    <t>After a day at the water park we checked in to The Holiday Inn Express. The lady at the counter was very friendly. After we got up to our room on the 3rd floor, we found that the A/C wasn't working in the separate bedroom so my husband went down stairs. They immediate gave us another room and it was great. The room was a perfect size for our family, the King Family Suite. A nice entry with table / chairs. A living area with flat screen TV, small kitchen area with mini fridge &amp; microwave, a king size bed with another TV and desk and door entrance to the bathroom.There was also a separate bedroom with King Size bed, TV, dresser, closet and a bathroom door access. 
+During the month of August they are having Free pancakes from 8pm to midnight. 
+Breakfast was right off the lobby. It was very cozy with a fireplace &amp; sofa with some small tables for families and a long bar table for eating. On a Sunday morning there was your standard cereals, fruits, pastries along with eggs, biscuits, sausage gravy, sausage pattys, bacon, and yummy cinnamon rolls. A great value included in your stay. 
+In the lobby there is a sofa and a couple of computers and some citrus water. The pool was packed full of people! There is a laundry area, vending machines, FREE Wifi and 1 elevator, as this is only...After a day at the water park we checked in to The Holiday Inn Express. The lady at the counter was very friendly. After we got up to our room on the 3rd floor, we found that the A/C wasn't working in the separate bedroom so my husband went down stairs. They immediate gave us another room and it was great. The room was a perfect size for our family, the King Family Suite. A nice entry with table / chairs. A living area with flat screen TV, small kitchen area with mini fridge &amp; microwave, a king size bed with another TV and desk and door entrance to the bathroom.There was also a separate bedroom with King Size bed, TV, dresser, closet and a bathroom door access. During the month of August they are having Free pancakes from 8pm to midnight. Breakfast was right off the lobby. It was very cozy with a fireplace &amp; sofa with some small tables for families and a long bar table for eating. On a Sunday morning there was your standard cereals, fruits, pastries along with eggs, biscuits, sausage gravy, sausage pattys, bacon, and yummy cinnamon rolls. A great value included in your stay. In the lobby there is a sofa and a couple of computers and some citrus water. The pool was packed full of people! There is a laundry area, vending machines, FREE Wifi and 1 elevator, as this is only a 3 story hotel. We always took the stairs.The A/C was rather loud when it kicked on, and because it is located off the freeway you would hear large trucks at night. This would be a comfortable stay for a family. The only issue we encountered was corrected immediately and they were very apologetic. MoreShow less</t>
+  </si>
+  <si>
+    <t>After a day at the water park we checked in to The Holiday Inn Express. The lady at the counter was very friendly. After we got up to our room on the 3rd floor, we found that the A/C wasn't working in the separate bedroom so my husband went down stairs. They immediate gave us another room and it was great. The room was a perfect size for our family, the King Family Suite. A nice entry with table / chairs. A living area with flat screen TV, small kitchen area with mini fridge &amp; microwave, a king size bed with another TV and desk and door entrance to the bathroom.There was also a separate bedroom with King Size bed, TV, dresser, closet and a bathroom door access. 
+During the month of August they are having Free pancakes from 8pm to midnight. 
+Breakfast was right off the lobby. It was very cozy with a fireplace &amp; sofa with some small tables for families and a long bar table for eating. On a Sunday morning there was your standard cereals, fruits, pastries along with eggs, biscuits, sausage gravy, sausage pattys, bacon, and yummy cinnamon rolls. A great value included in your stay. 
+In the lobby there is a sofa and a couple of computers and some citrus water. The pool was packed full of people! There is a laundry area, vending machines, FREE Wifi and 1 elevator, as this is only...After a day at the water park we checked in to The Holiday Inn Express. The lady at the counter was very friendly. After we got up to our room on the 3rd floor, we found that the A/C wasn't working in the separate bedroom so my husband went down stairs. They immediate gave us another room and it was great. The room was a perfect size for our family, the King Family Suite. A nice entry with table / chairs. A living area with flat screen TV, small kitchen area with mini fridge &amp; microwave, a king size bed with another TV and desk and door entrance to the bathroom.There was also a separate bedroom with King Size bed, TV, dresser, closet and a bathroom door access. During the month of August they are having Free pancakes from 8pm to midnight. Breakfast was right off the lobby. It was very cozy with a fireplace &amp; sofa with some small tables for families and a long bar table for eating. On a Sunday morning there was your standard cereals, fruits, pastries along with eggs, biscuits, sausage gravy, sausage pattys, bacon, and yummy cinnamon rolls. A great value included in your stay. In the lobby there is a sofa and a couple of computers and some citrus water. The pool was packed full of people! There is a laundry area, vending machines, FREE Wifi and 1 elevator, as this is only a 3 story hotel. We always took the stairs.The A/C was rather loud when it kicked on, and because it is located off the freeway you would hear large trucks at night. This would be a comfortable stay for a family. The only issue we encountered was corrected immediately and they were very apologetic. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r294549727-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>294549727</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Read the fine print</t>
+  </si>
+  <si>
+    <t>We booked this hotel for a 3 day stay.  Unfortunately we had to cancel our trip.  Our credit card was charged the day we made the reservations for all 3 days.  It's taken 6 phone calls to ihgrewards.com and the hotel to get this taken care of.  Why do they charge your card 3 days before you are even suppose to arrive??????   Then you can't get a full refund even with a 30 hour notice of cancellation.   Be 100% certain you can stay because it will be a $100+ mistake if you can't:(MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>We booked this hotel for a 3 day stay.  Unfortunately we had to cancel our trip.  Our credit card was charged the day we made the reservations for all 3 days.  It's taken 6 phone calls to ihgrewards.com and the hotel to get this taken care of.  Why do they charge your card 3 days before you are even suppose to arrive??????   Then you can't get a full refund even with a 30 hour notice of cancellation.   Be 100% certain you can stay because it will be a $100+ mistake if you can't:(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r281171853-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>281171853</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>"NO ROOMS" as I stood in the lobby and booked online.</t>
+  </si>
+  <si>
+    <t>We inquired about staying at this hotel and was told there were no rooms available.  However, as I searched online on my phone I was able to reserve our room.  I then showed the front desk woman my reservation and she granted me my room.  The hotel was nice but was WAY overpriced with little to no customer service.  We paid $179.99/night for a family suite which for this location in rural Texas was extremely pricey.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded July 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2015</t>
+  </si>
+  <si>
+    <t>We inquired about staying at this hotel and was told there were no rooms available.  However, as I searched online on my phone I was able to reserve our room.  I then showed the front desk woman my reservation and she granted me my room.  The hotel was nice but was WAY overpriced with little to no customer service.  We paid $179.99/night for a family suite which for this location in rural Texas was extremely pricey.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r278594391-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -558,9 +1080,6 @@
     <t>We checked in at 4:30 and had to wait in the hallway for the room to be cleaned. There were no towels in the pool area. When we contacted the desk, we were told they would be brought. Twenty minutes later, the lady at the front desk was too busy to come with the towels. There was a roach motel on  the counter in the bathroom. The bed thankfully was great and the breakfast was great. I probably will not stay here again though. More</t>
   </si>
   <si>
-    <t>MCF618</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r275190903-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -574,12 +1093,6 @@
   </si>
   <si>
     <t>We stopped for one night to break our trip to midland.   The hotel was clean, neat and room was quiet.  The tv was small for room.  We figure that someone must of stole the older one and all they got was this small tv.   Otherwise good stay. Would recommend it.  Would stay there if I was heading that way again, but due to oil prices low, won't be heading to midland any time soon.</t>
-  </si>
-  <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>PamHiran</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r268200673-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -613,9 +1126,6 @@
 The demeanor of the staff at the hotel was very uncaring. We ended up contacting IHG...We booked our trip via a third-party website and requested a crib. I called the hotel directly to make sure the crib request was added and got the response of " if you requested it, then it shouldn't be a problem". We showed up at midnight due to delayed flight with our baby and there were no cribs. Turns out, we've been told that night upon check-in, there were 4 cribs which were all being used. The next morning, the lady who identified herself as the manager on duty said they only had 1 crib in the whole property and it would be unavailable for another week. We were told they would try to look for a crib from another nearby property but we never heard back.Upon check-in, we were assigned a non-smoking room which had recently been converted from a smoking room (Room 310). The sign in the front of the room did not have a non-smoking sign on it. We asked for a room change and after 10-15 minutes of checking on her computer, we were informed we needed to pay the upgrade fees to get a (requested) non-smoking room because only suites were available (we booked a regular room). Travelers with respiratory problems or travelers with infants should make sure the requested non-smoking room was not previously a smoking room.The demeanor of the staff at the hotel was very uncaring. We ended up contacting IHG Care via email and that led to the upgrade fees being waived. Upon check out, we were told that we would be reimbursed partially for all the inconvenience but that has not happened so far (it's been 7 days since check out).Other observations: luggage carts are in poor condition and all over the hall, broken pancake machine for the whole 3 nights stay, regular corn flakes in frosted flakes container, puddle of water by the window after a thunderstorm.More</t>
   </si>
   <si>
-    <t>baleezmom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r266146697-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -640,9 +1150,6 @@
     <t>I rated this hotel average because it was a decent place and very typical.  I only stayed 1 night for business.  The hotel overall was clean, the bed was fine.  I did like the choice of soft or firm pillows.  The breakfast was the usual HIE offering and their cinnamon rolls are always good.  There was a little trouble booking rooms and getting confirmations and I think there may have been a communication barrier.  I booked 6 rooms for my work group and we all ended up with the correct accommodations but I had to work to get it done and get the confirmations.   Abby was very helpful when I called for verification and assistance.  One word of caution if you enter from the side entrance, there is a short narrow median right in the drive so when you turn into the parking lot you have to make a sharp left and then back right or you will hit the median.  3 out of the 4 vehicles in our party had problems with it, they need to do something about it before someone tears up a car.More</t>
   </si>
   <si>
-    <t>Steven B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r263826630-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -659,9 +1166,6 @@
   </si>
   <si>
     <t>Appears to be a newer hotel in the area.  The rooms were clean and quiet.  The beds were a little soft for my taste but that's my   The price was a little higher than I expected for an HI Express but we were tired and needed to sleep.  Check-in was a bit of a struggle as the woman working overnight was new and told me 3 different prices before finally getting me booked.  In the morning, we discovered that there were plenty of restaurants and stores walking distance so the hotel is in a good area.  I liked that the parking lot was well lit and we could see the car from our room.More</t>
-  </si>
-  <si>
-    <t>groommom2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r263083789-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -699,9 +1203,6 @@
 Facilities / No hot water   The water was barely lukewarm water morning of Saturday 3/28.  When asked about it, they said, ‘yes, we’ve been having problems with it.’ …so it was a known issue.  My brother...First,  similar complaints have been voiced by others in the wedding party.  Didn’t get the room type requested (received a 2 queen room – asked for a 2 king suite).  Room requested in October 2014.  Then when I tried to change it to what was requested, they didn’t want to give me the discounted rate for the wedding…or ANY discount for that matter.  The comment was “since this is a late reservation, you’ll have to pay the full price.”  Week beginning 3/16.Non-responsive   They didn’t call me back when they said they would.  Week beginning 3/16 to confirm the room and rate.  And again on 3/31 4th call.  Can’t get help with billing / Rude on phone   When I called to try to resolved a duplicate billing situation, this was the response, “I’m the only one here and this is going to take me a long time to figure out”.  That’s ok.  Except that without notice, I was put on hold 3 times and then the call was dropped from the other side after 6 minutes.  3/31 afternoon.  Wound up settling with my mom.  I figured out that they charged me for her room even though she provided her credit card number upon check-in.Facilities / No hot water   The water was barely lukewarm water morning of Saturday 3/28.  When asked about it, they said, ‘yes, we’ve been having problems with it.’ …so it was a known issue.  My brother asked them if he could look at it.  He simply turned off the non-working tank so its cold water wouldn’t mix with the working tank.  Facilities / Treadmills not working  Morning of Saturday 3/28.  Turns out they just needed to be moved closer to the outlet and plugged in.  IMHO these were issues that could have been resolved easily with appropriate leadership and owner responsibility.  I guess that’s why I’m so very surprised that these issues were just accepted/avoided by the staff and the owner.  The situation can be salvaged.  Until then…       Go elsewhereMore</t>
   </si>
   <si>
-    <t>danarbrad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r255699567-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -717,9 +1218,6 @@
     <t xml:space="preserve">We were staying here for a softball tournament. Rooms were ready and very clean upon arrival. Front desk was very nice and efficient. Only complaint was very meager breakfast selection and the girls reported that hot items were barely warm. Otherwise a great place in a great location close to stores and restaurants. </t>
   </si>
   <si>
-    <t>Shawnase</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r248846460-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -735,9 +1233,6 @@
     <t>Checked in after a long 10 hour drive, the two young men helped us by changing our reservation from one king size bed to two queens but they were full size. The pool and hot tub were very cloudy to suggest more bacteria. At 0300 a rush of military personnel were packing up in the hall and not very quiet. At 0600 personnel from DOT slammed doors and were talking outside our room. I love this chain but next time there are people who need to get up at that hour, can you place others away from the commotion?</t>
   </si>
   <si>
-    <t>twinsontheroad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r239288296-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -783,7 +1278,118 @@
     <t>We stayed here the night of a friends wedding that was close by. The hotel was in a very convenient location right off the highway. The lobby and staff were very nice. Our room and bed were very comfortable and we got a very good nights rest. We had breakfast the next morning and the food and selection was great. Our only complaint was that we had no water pressure and our water smelled horrible and was not drinkable in our room. We got the same smell out of the sink and shower. My parents were staying right down the hall and said they had great water and water pressure so I guess it may have only been our room. My parents did however have a problem with bugs coming in their room through the sprinkler. We did report the problem to the front desk when we checked out and they said they were going to have someone check into it.More</t>
   </si>
   <si>
-    <t>Tim L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r238550953-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>238550953</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Typical HI Express</t>
+  </si>
+  <si>
+    <t>Check-in was very good, staff was very helpful. The room was very nice, there were two minor problems that I informed the front desk staff about on my departure. Two of the breakfast items were only mildly warm, which is not very appetizing. Overall, a very typical HI Express experience.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r226318096-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>226318096</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Decent Stay but Noisy</t>
+  </si>
+  <si>
+    <t>This is a good, modern Holiday Inn Express.  The staff on the front desk were really friendly and the room was a good, modern motel room.  At this point it was a good Holiday Inn Express experience.  My one complaint would be the noise.  I arrived late and was given a room close to the elevator and I could hear it throughout the night.  Took hours to get to sleep.  So a decent place to stop at but noise reduces it to a score of 3 based on my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Tammie F, General Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>This is a good, modern Holiday Inn Express.  The staff on the front desk were really friendly and the room was a good, modern motel room.  At this point it was a good Holiday Inn Express experience.  My one complaint would be the noise.  I arrived late and was given a room close to the elevator and I could hear it throughout the night.  Took hours to get to sleep.  So a decent place to stop at but noise reduces it to a score of 3 based on my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r219295338-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>219295338</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>The Front desk has great customer service! The girls are really sweet. The Rooms are nice and cold! And the pool is nice and relaxing! Didn't get to taste breakfast. Differently would stay there again. Their check out is pretty late too!! If need that extra rest!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tammie F, General Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded August 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2014</t>
+  </si>
+  <si>
+    <t>The Front desk has great customer service! The girls are really sweet. The Rooms are nice and cold! And the pool is nice and relaxing! Didn't get to taste breakfast. Differently would stay there again. Their check out is pretty late too!! If need that extra rest!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r215629286-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>215629286</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>The employees were very helpful.  We loved the hot tub on our tired travel muscles.  The room was great and the beds just right.  The pool was great, but be aware that there are turtles painted on the bottom. It was a little creepy at first for my kids, but once they realized they were painted on everything was good. The breakfast was okay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Tammie F, General Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded July 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2014</t>
+  </si>
+  <si>
+    <t>The employees were very helpful.  We loved the hot tub on our tired travel muscles.  The room was great and the beds just right.  The pool was great, but be aware that there are turtles painted on the bottom. It was a little creepy at first for my kids, but once they realized they were painted on everything was good. The breakfast was okay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r215465773-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>215465773</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Experience in Weatherford Tx</t>
+  </si>
+  <si>
+    <t>We stayed here over the 4th of July Holiday weekend and had a wonderful experience. The hotel was very clean and the staff were all friendly and very helpful with all our needs. The rooms were very spacious and exceptionally clean. The AC worked beautifully and kept our room cold!!! This hotel is convenient to eating and shopping. The Cracker Barrel is just across the street and strip shopping centers are all around it. It is right off I-20 and convenient to Ft. Worth and Dallas. I recommend this hotel if you are in the area, the beds were very comfortable, the refrigerator, microwave and coffee pot worked well. The Free Breakfast offered hot pancakes, eggs, bacon, fruits, cereal, pastries, yogurt, milk, juices and hot coffee. The price of the hotel was economical. We will stay here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here over the 4th of July Holiday weekend and had a wonderful experience. The hotel was very clean and the staff were all friendly and very helpful with all our needs. The rooms were very spacious and exceptionally clean. The AC worked beautifully and kept our room cold!!! This hotel is convenient to eating and shopping. The Cracker Barrel is just across the street and strip shopping centers are all around it. It is right off I-20 and convenient to Ft. Worth and Dallas. I recommend this hotel if you are in the area, the beds were very comfortable, the refrigerator, microwave and coffee pot worked well. The Free Breakfast offered hot pancakes, eggs, bacon, fruits, cereal, pastries, yogurt, milk, juices and hot coffee. The price of the hotel was economical. We will stay here in the future.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r209784532-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -813,9 +1419,6 @@
     <t>We needed a place to stay on our recent trip to the Dallas/Ft. Worth area for our niece's graduation and chose this hotel in Weatherford.  The location is right off I-20 and was clean, comfortable and economical.  The breakfast was included in the price of the room and proved to be a cut above the norm.  The room was large, everything worked and was in order and we slept just fine.  There was quite a bit of noise from the adjacent Interstate but nothing a sound machine couldn't offset.More</t>
   </si>
   <si>
-    <t>wick1979</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r200648097-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -843,9 +1446,6 @@
     <t>Had to stay here due to our hotel being over sold the first night. Was nice and new. Rooms were good size but walls were thin. Breakfast area down stairs was nice and large. Is not out of the way from main st. Requiring you to go around the block every time to do anything as it's a one way road got to be a pain even after only a night there. Would recommend a hotel up off main st for more easy in and out of weatherford. More</t>
   </si>
   <si>
-    <t>WALTER S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r187157947-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -861,18 +1461,9 @@
     <t>On the whole fine, but a couple of oddities.  The coffee maker did not work right, and the bedside lamps were controlled by a switch that also put on the hallway light.  So either you had the hallway light on or the bedside lamps did not work.  Don't plow parking lot well in bad weather.MoreShow less</t>
   </si>
   <si>
-    <t>Tammie F, General Manager at Holiday Inn Express Hotel &amp; Suites Weatherford, responded to this reviewResponded July 17, 2014</t>
-  </si>
-  <si>
-    <t>Responded July 17, 2014</t>
-  </si>
-  <si>
     <t>On the whole fine, but a couple of oddities.  The coffee maker did not work right, and the bedside lamps were controlled by a switch that also put on the hallway light.  So either you had the hallway light on or the bedside lamps did not work.  Don't plow parking lot well in bad weather.More</t>
   </si>
   <si>
-    <t>LubbockMike</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r185815132-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -900,9 +1491,6 @@
     <t>Very nice accommodations with a wonderful staff.  Due to a recent winter storm which left us without electricity, we fled to this Holiday Inn Express for warmth and lights.  I highly recommend this property.  I stay in motels over 100 nights per year, and this place is among my favorites.  I will stay here in the future.More</t>
   </si>
   <si>
-    <t>Kalee L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r183690639-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -918,9 +1506,6 @@
     <t>Britt was absolutely a delight to work with! I called him for a reservation (for a customer that was in route to the area) and he was able to not only secure a room, but able to assist with special accommodations, as well.  I am in the business and our loyal customers look for the quality of service that they are accustomed to.......Britt was a prime example of the way that Holiday Inn Express operates! Kudos to you, Britt! I nominate you as Employee Of The Month!!! Thanks for making a difference!! - Kalee Lancaster, Director of Sales &amp; Marketing, Holiday Inn Express, Jacksonville, Texas.</t>
   </si>
   <si>
-    <t>MrsLeos</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r180328091-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -934,9 +1519,6 @@
   </si>
   <si>
     <t xml:space="preserve">I traveled with my 3 boys to visit my husband who is working in the area. We rented a family suite. It was perfect. The bed was so comfy I didn't last 15 minutes by the time I was out. My boys enjoyed the indoor pool since it was cold out that night. Staff were great. this hotel has set the bar very high for what makes a great stay. </t>
-  </si>
-  <si>
-    <t>Nancy E</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r173409571-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -964,9 +1546,6 @@
 We were well pleased with this hotel and would stay again if in...We stayed here while traveling through Texas. It is just off the Interstate 20, easy to get to. we were greeted kindly by the check-in attendant promptly. Fresh cookies and Orange- water were available. This was a reward night for us and we were greeted as so, since we are Priority club members. We had our choice of free snacks and each given a bottle of cold water.  the room was a King handicapped room which was fine, it had an extra large bathroom. I love the Bath and Body works shampoo, and conditioner and soap. There were plenty of towels for us to shower at night and in the morning. The room had a microwave and refrigerator, extra soft lounge chair and table with lamp.  the king bed was exceptionally comfortable and there was a plug in in the lamp which I like so I can keep my cell phone plugged in on the night stand.Breakfast was the same as most HIE - pancake maker, fresh oranges, apples and bananas, cheese omelets, bacon, biscuits and gravy, etc. There was a large island and the area was easy to move around and prep your food. There were small tables along with a LARGE long table with bar stool height chairs, situated so you could watch the morning news. There were 2 different newspapers available for free.We were well pleased with this hotel and would stay again if in the area.More</t>
   </si>
   <si>
-    <t>SaltRiverRafter</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r169177758-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -976,18 +1555,12 @@
     <t>07/26/2013</t>
   </si>
   <si>
-    <t>Nice property</t>
-  </si>
-  <si>
     <t>Just off the I-20 interstate. Good room and very nice front desk clerk. Choc. cookies when you check in. Great Breakfast...gets you out the door and on your way. Fun watching the old ladies swim while eating breakfast. The pool window is looking in on the dining area.</t>
   </si>
   <si>
     <t>July 2013</t>
   </si>
   <si>
-    <t>Catsnidget</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r167860512-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1001,9 +1574,6 @@
   </si>
   <si>
     <t>We decided to stop after a long day of driving. The service was pretty good and the rooms were nice as well. Breakfast left me somewhat unsatisfied, especially for the price they asked us for a night. Also, do not go to Lucille's dinner, even if they do recommend it. The food was way over-priced and the service was terrible.</t>
-  </si>
-  <si>
-    <t>Fred C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r167662551-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1049,9 +1619,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>tigilau</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r162755049-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1079,9 +1646,6 @@
     <t>My bad review started with the fact that I was greeted by a nice young lady who, through no fault of her own, knew nothing about what she was supposed to do with me.  This was her first day there, which I understand BUT the girl there to "train" her had only been with the company for 1 week.  There was a gentleman delivering a new air conditioner, neither of them knew where to send him or what to do about the delivery.  So while the "experienced" one called her supervisor to ask what she was supposed to do, the "brand new" one continued to apologize to me for not knowing what to do.  Onward from there and finally getting my keys and pointed in the right direction to the elevator we arrived in our room.  It was a suite with 2 bedrooms.  In the room that my friend chose, she's older and I usually let her decide, the air conditioner worked, okay, but in what was to be my room, nothing.  To make a long story short, I'm hot natured and she is cold natured, so after trying to figure out how to make "mine" work we switched rooms and I went down to address the situation with the girls, again neither of them knew what to do, so I just accepted the bedroom switch.  Then when I arrived back upstairs, my friend was having difficulty working any of...My bad review started with the fact that I was greeted by a nice young lady who, through no fault of her own, knew nothing about what she was supposed to do with me.  This was her first day there, which I understand BUT the girl there to "train" her had only been with the company for 1 week.  There was a gentleman delivering a new air conditioner, neither of them knew where to send him or what to do about the delivery.  So while the "experienced" one called her supervisor to ask what she was supposed to do, the "brand new" one continued to apologize to me for not knowing what to do.  Onward from there and finally getting my keys and pointed in the right direction to the elevator we arrived in our room.  It was a suite with 2 bedrooms.  In the room that my friend chose, she's older and I usually let her decide, the air conditioner worked, okay, but in what was to be my room, nothing.  To make a long story short, I'm hot natured and she is cold natured, so after trying to figure out how to make "mine" work we switched rooms and I went down to address the situation with the girls, again neither of them knew what to do, so I just accepted the bedroom switch.  Then when I arrived back upstairs, my friend was having difficulty working any of the 3 TVs that were in the rooms.  I was finally able to get one to work but really just gave up on telling anyone about the problem.Next morning we went down for breakfast, looking forward to the great cinnamon rolls that we have come to expect at HIE.  However they had left the top cover off the rolls and they were dry with no taste left to them.  I mentioned to the person on duty that if they left the cover on them as all the other HIE, where we have stayed do, that they would stay fresher and delicious as they are when they are first taken from the oven.  His response was, "the OWNER makes us remove the cover so customers won't have trouble getting them onto their plates.My point, to all of this is, I certainly hope that IHG has not gone the way of the Best Western hotel chain where they are owned by individuals setting their own standards instead of following the guidelines that have helped them reach such dependable high standards.I was in Customer Service with a large national company for several years, and it is highly unusual to leave two untrained employees in charge of a counter.  There is no complaint against the girls, but the OWNER should be reprimanded if not let go, if you can do that to an owner.From now on we will think more than twice before we stay at a HIE again.  We did stay at a Staybridge, in Tyler, TX because the res was made before this fiasco happened, and that worked out well.  However our opinion about the IHG chain has certainly taken a hit.More</t>
   </si>
   <si>
-    <t>Jaymie22</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r162276747-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1097,9 +1661,6 @@
     <t>The room was nice and clean, except we had to change rooms because ours would not get hot water for some reason. But once we switched, everything was fine. The man at the front desk was very polite that night. But the woman at the front desk in the morning were fairly rude. Didn't seem to care much about the customer. But the breakfast was very nice and good coffee too.</t>
   </si>
   <si>
-    <t>Linda C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r159393234-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1127,9 +1688,6 @@
     <t>Holiday Inn Express usually means a better property. This one had good A/C and a more than adequate breakfast buffet in the lobby complete with modern art on the wall that reminded me of Sir Samuel's Restaurant on deck 3 of the Queen Mary 2 from which we'd just disembarked only days before coming here on the way back to Tucson last August. But I don't like staying on the second floor with a dog and a cat. It was extremely inconvenient to check in and even worse to check out in the pouring rain the next morning. The motel should be more considerate of guests with big dogs. They need to be on the ground floor next to a door. Another guest even laughed at our Lab scurrying along the second-floor hallway. The dog practically ran into him!More</t>
   </si>
   <si>
-    <t>Fluffandstuff</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r159354004-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1145,7 +1703,100 @@
     <t>This place is fantastic!  I am here my husband &amp; 2 boys.  After a grueling dramatic day yesterday, we arrived here late last night.  We have traveled all over the world &amp; I have to say I was surprised when I walked into our room.  European elegance and modern whimsy... My children were exhausted, we slept great on fresh, fluffy beds.  When we woke up, we started the day with a swim in the wonderful indoor pool.  Happy kids.  Whoops we missed the free breakfast, but as I poured myself a cup of coffee a sweet lady asked if we could take cinnamon rolls &amp; bananas to go!  I have never written a review, but this place really saved us when were having a terrible time.  Thankful!More</t>
   </si>
   <si>
-    <t>TucsonHikers</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r154561692-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>154561692</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>Stopped for the night when passing thru Weatherford, was pleasently surprised. Very nice property, modern and clean. Staff was very helpful with directions etc. The room was clean and comfortable. Had a nice hot breakfast before we left. Overall a pleasant stay.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r145617942-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>145617942</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel but a bit expensive</t>
+  </si>
+  <si>
+    <t>This hotel is somewhat new and it is nice. the only problem I had was the price. I should have looked around for a lower rate hotel. I felt that $112.00 a night was a little high for a room in this hotel. Half of the rooms back up to Interstate 20 and the noise could bother some people.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r144594712-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>144594712</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Not Consistant</t>
+  </si>
+  <si>
+    <t>I am a regurlar traveler, I also manage a Holiday Inn Express. I was disapointed at this one. They used old logoed keys, the laundry bags were old logoed. They didnt seem to know that I was a Platinum PC member. They didnt have a USA today. Nor did I get my bill under my door or emailed to me. I had a hard time finding it as well. Something was wrong with the GPS that was loaded. Everyone in my party had the same problem. So I am not too sure why the directions given were wrong. I asked Megan, at the front desk. She said it was because of construction which I didnt see any. But over all, the stay was OK. I didnt like the beds they were very hard and unconfortable. The firm pillows were lumpy and very soft. The soft pillows didnt have any thing in them at all. We had brought our own. The two queen room was crowded with bulky furntiure and was hard to feel confortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a regurlar traveler, I also manage a Holiday Inn Express. I was disapointed at this one. They used old logoed keys, the laundry bags were old logoed. They didnt seem to know that I was a Platinum PC member. They didnt have a USA today. Nor did I get my bill under my door or emailed to me. I had a hard time finding it as well. Something was wrong with the GPS that was loaded. Everyone in my party had the same problem. So I am not too sure why the directions given were wrong. I asked Megan, at the front desk. She said it was because of construction which I didnt see any. But over all, the stay was OK. I didnt like the beds they were very hard and unconfortable. The firm pillows were lumpy and very soft. The soft pillows didnt have any thing in them at all. We had brought our own. The two queen room was crowded with bulky furntiure and was hard to feel confortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r142798577-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>142798577</t>
+  </si>
+  <si>
+    <t>10/14/2012</t>
+  </si>
+  <si>
+    <t>My Ipod Touch was stolen by motel staff!!!!  Stay away!</t>
+  </si>
+  <si>
+    <t>Initially I liked the Holiday Express Inn (after we found it, which was difficult!).  The woman at the desk was friendly, welcoming.  Our room was equipped with a fridge, microwave, and coffee maker.  The beds were nice.  There was an indoor pool and hot tub.  My sister and I went to soak in the hot tub, but it was too cold to sit in.  Too bad!  During the night, we heard guests in a near by room having quite an argument.  A bit disruptive for sleeping.  But we did manage to sleep a bit.  In the morning, we I left my ipod touch 4th generation charging and walked down the hall to a lovely continental breakfast.  I didn't worry, we were going to go right back to the room after breakfast.  As we left the room, the hall was full of housekeeping staff, preparing to begin the work day.  We ate breakfast, and returned to the room no more than 30 minutes later.  The ipod was gone.  I reported it to an unsympathetic staff.  This is a huge loss for me.  Stay Away from this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Initially I liked the Holiday Express Inn (after we found it, which was difficult!).  The woman at the desk was friendly, welcoming.  Our room was equipped with a fridge, microwave, and coffee maker.  The beds were nice.  There was an indoor pool and hot tub.  My sister and I went to soak in the hot tub, but it was too cold to sit in.  Too bad!  During the night, we heard guests in a near by room having quite an argument.  A bit disruptive for sleeping.  But we did manage to sleep a bit.  In the morning, we I left my ipod touch 4th generation charging and walked down the hall to a lovely continental breakfast.  I didn't worry, we were going to go right back to the room after breakfast.  As we left the room, the hall was full of housekeeping staff, preparing to begin the work day.  We ate breakfast, and returned to the room no more than 30 minutes later.  The ipod was gone.  I reported it to an unsympathetic staff.  This is a huge loss for me.  Stay Away from this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r141379689-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>141379689</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>A fine place to stay, but nothing special</t>
+  </si>
+  <si>
+    <t>I generally use the Choice Hotels brand for both business and pleasure, which has properties comparable to Holiday Inn Express.  I stayed at this HIE since a block of rooms had been reserved for out-of-town wedding guests.  The location of this property is convenient to I-20, shopping and restaurants, though the Texas frontage road system provided a challenge to finding it in the first place.  The property is fairly new and has an upscale feel.  Room was large and comfortable.  Nice breakfast buffet and large seating area.  Some failings prevented it from being a good value compared to what I usually find with Choice, however.  The room A/C was rather noisy.  Even though the property is fairly new, some signs of deterioration were apparent in the room.  None of the exercise equipment worked.  The location along the interstate and TX heat makes it a rather unappealing place for a run, so this was disappointing.  Nothing significantly negative about this property, but nothing about it entices me to switch to HI from Choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I generally use the Choice Hotels brand for both business and pleasure, which has properties comparable to Holiday Inn Express.  I stayed at this HIE since a block of rooms had been reserved for out-of-town wedding guests.  The location of this property is convenient to I-20, shopping and restaurants, though the Texas frontage road system provided a challenge to finding it in the first place.  The property is fairly new and has an upscale feel.  Room was large and comfortable.  Nice breakfast buffet and large seating area.  Some failings prevented it from being a good value compared to what I usually find with Choice, however.  The room A/C was rather noisy.  Even though the property is fairly new, some signs of deterioration were apparent in the room.  None of the exercise equipment worked.  The location along the interstate and TX heat makes it a rather unappealing place for a run, so this was disappointing.  Nothing significantly negative about this property, but nothing about it entices me to switch to HI from Choice.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r140883562-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1163,15 +1814,9 @@
     <t>We stopped for the night driving on I30 heading East.  This was a comfortable place to crash for the night after a long day's drive.  Restaurants are close by and this is a safe area close to Fort Worth right along I10.  The room was spacious and comfortable.  The breakfast was typical Holiday Inn Express and we enjoyed the scrambled eggs with pancakes combo with coffee and orange juice.  The room are modern especially the bathroom with a powerful shower for a mornign wakeup.  It was nice to have breakfast available at 6 for an early start.  Definitely a place we will stay at again in the future.  The staff was friendly and helpful.MoreShow less</t>
   </si>
   <si>
-    <t>September 2012</t>
-  </si>
-  <si>
     <t>We stopped for the night driving on I30 heading East.  This was a comfortable place to crash for the night after a long day's drive.  Restaurants are close by and this is a safe area close to Fort Worth right along I10.  The room was spacious and comfortable.  The breakfast was typical Holiday Inn Express and we enjoyed the scrambled eggs with pancakes combo with coffee and orange juice.  The room are modern especially the bathroom with a powerful shower for a mornign wakeup.  It was nice to have breakfast available at 6 for an early start.  Definitely a place we will stay at again in the future.  The staff was friendly and helpful.More</t>
   </si>
   <si>
-    <t>Robbierobb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r139356207-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1190,9 +1835,6 @@
     <t>November 2011</t>
   </si>
   <si>
-    <t>Arnold_Ziffel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r138357898-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1211,9 +1853,6 @@
     <t>This inn is a new one, sitting beside I-30.  I have never stayed with them. However, I can't help but notice that there's a fountain in front of the property, which is something fairly unusual at the express locations.  It's very pretty, until one notices that they have included the water treatment system directly behind it, and in view of everything.  The ugly piping, and those big canisters that are used for swimming pools, and obviously larger fountains were not encased in any type of cover.  It's the first installation I've seen that was quite so insensitive to the rest of the landscaping and aesthetics built with the property.  I think these inns are probably standard configurations, built to a corporate-mandated set of plans.   This is the only one I've ever seen with a fountain, and while it adds a very nice touch, couldn't they have concealed the guts to the thing behind a door or otherwise out of view?More</t>
   </si>
   <si>
-    <t>John C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r138327334-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1226,9 +1865,6 @@
     <t xml:space="preserve">There were almost all positive points-the room was more than zi expected, clean and air conditioner was quiet and cool.The breakfast seemed a little below par for a Holiday Inn Express but was adequate. Current day newspaper was good.  The staff was very pleasant, starting with welcoming chocolate chip cookie and naturally flavored (real fruit slices). In the water container. Nice touch We have new business customer nearly and will pick this location many times in the future. </t>
   </si>
   <si>
-    <t>Joe C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r132319832-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1256,7 +1892,94 @@
     <t>I've stayed in quite a few hotels and this was one of the worst experiences I've had to date. Upon arriving and checking at the front desk my fiance asked me to go take a look at the pool. It was a good thing we brought our swimsuits because it was a dark green pond color. There was no way we were going to risk getting sick by swimming in their pool. If we hadn't already paid almost 90.00 for the room I would have just left and stayed at another hotel. I then thought if we weren't able to use the pool I would just upgrade to a jacuzzi suite for an extra 56.50. Once in the room I noticed right away a terrible smell of old alcohol and cigarettes. As it turns out this is a smoking hotel and even though we requested a non smoking room we got a smoking one or at least one that smells like it. At this point I was just looking forward to relaxing in the hot tub then just going to sleep. I ran the hot tub water and got in. To my surprise and horror some black slimy mass floated up from one of the jets to join me in the tub. I cleaned out the dirty tub then tried to turn the tub on. The hot tub didn't work right and only one jet was putting out any pressure....I've stayed in quite a few hotels and this was one of the worst experiences I've had to date. Upon arriving and checking at the front desk my fiance asked me to go take a look at the pool. It was a good thing we brought our swimsuits because it was a dark green pond color. There was no way we were going to risk getting sick by swimming in their pool. If we hadn't already paid almost 90.00 for the room I would have just left and stayed at another hotel. I then thought if we weren't able to use the pool I would just upgrade to a jacuzzi suite for an extra 56.50. Once in the room I noticed right away a terrible smell of old alcohol and cigarettes. As it turns out this is a smoking hotel and even though we requested a non smoking room we got a smoking one or at least one that smells like it. At this point I was just looking forward to relaxing in the hot tub then just going to sleep. I ran the hot tub water and got in. To my surprise and horror some black slimy mass floated up from one of the jets to join me in the tub. I cleaned out the dirty tub then tried to turn the tub on. The hot tub didn't work right and only one jet was putting out any pressure. I never ended up using the broken dirty hot tub and so one would assume the fees for the hot tub would be credited back. The next day I spoke with staff and they assured me someone would call me and that I wouldn't be charged. I checked my account today and found that in fact I was charged for this "upgrade" so I called the hotel and spoke with Prem Panchal or as he likes to be called on the phone "Nick". Prem told me that since I used priceline he fealt I got "A Good Deal" and that he wasn't going to issue a refund for the broken hot tub because priceline only paid him 60.00 for the room while I paid close to 90.00. I dont know what the priceline cost of the room has to do with a broken hot tub but that's what Prem said. My fiance who is the sweetest girl you could meet tried calling and discussing the matter with Prem but was hung up on.  =(More</t>
   </si>
   <si>
-    <t>tobyschoonover</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r131753379-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>131753379</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Not a Good Experience</t>
+  </si>
+  <si>
+    <t>After our first night, we decided to change hotels for the following reasons:- Hotel faces interstate; traffic noise made sleep difficult- Pool was green; filter was not running; possible health hazard- Front desk attendent did not seem to be concerned that their pool had become a large bathtub of stagnant water, stated "Yeah, it's been that way for about a month"- On the bright side, they allowed me to cancel without a penalty.  The lady at the desk the following morning was much more hospitable.- Breakfast was adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>After our first night, we decided to change hotels for the following reasons:- Hotel faces interstate; traffic noise made sleep difficult- Pool was green; filter was not running; possible health hazard- Front desk attendent did not seem to be concerned that their pool had become a large bathtub of stagnant water, stated "Yeah, it's been that way for about a month"- On the bright side, they allowed me to cancel without a penalty.  The lady at the desk the following morning was much more hospitable.- Breakfast was adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r130535535-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>130535535</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>Best available in Weatherford</t>
+  </si>
+  <si>
+    <t>We have a location out in Weatherford and although we could stay in Ft. Worth I prefer to stay closer.  This most recent time when I went there was a bug in the tub when I got in the room but things like that happen so I wasn't too freaked out.  Room was clean other wise and I've never had a bug problem any other time I've stayed here.  All in all this is about the best your going to do out in Weatherford.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r124916846-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>124916846</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Best choice for our family visits to the area</t>
+  </si>
+  <si>
+    <t>My family loves this hotel!  We stay in one of their two-bedroom suites - the second bedroom is huge, and it has plenty of room for the kids to sleep in whatever arrangement suits them best.  My kids always burst through the sliding doors at the entrance, hoping that the cookies are ready and waiting; they usually are!The breakfast is nothing special, but my kids like it.  We have stayed here every couple of months to visit family, and we will continue to do so.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r124092209-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>124092209</t>
+  </si>
+  <si>
+    <t>02/03/2012</t>
+  </si>
+  <si>
+    <t>Great Experience...</t>
+  </si>
+  <si>
+    <t>I recently stayed 3 nights at this hotel.  Every night when we came back to the hotel, there was freshed baked chocolate chip cookies.  All the staff was over the top friendly and accomodating.  Breakfast was amazing every morning.   It is a great location to get just about any where you want to go.  However, the most amazing thing was after I got home and realized I left a pair of boots in my room....I called a week later and they still had them.  They are shipping them out on Monday....This sold me...I will definately stay there again.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r122069751-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>122069751</t>
+  </si>
+  <si>
+    <t>12/24/2011</t>
+  </si>
+  <si>
+    <t>This hotel goes above and beyond!</t>
+  </si>
+  <si>
+    <t>My family recently stayed here while we were visiting relatives in the area.  First, every single hotel staff member we encountered were more then just curteous, but friendly and polite too.  We had to make some last minute changes to our reservation and the hotel was very willing to accomodate those changes.  We were also ahead of schedule and arrived early.  They were able to get us into our room early too.  I loved the breakfast area.  Many newer build hotels are quite modernized and I feel like I am sleeping in a museum.  This hotel is very cozy and warm.  The fireplace and oversized couch was truely comfortable.  We were staying around the holidays and they had a huge Christmas tree all lit up.  I loved all those little touches. The rooms were very comfortable and extremely clean!  I was very impressed by the cleanliness of the hotel.  The best part of our stay was the indoor pool.  Traveling in December with 2 small children can present challenges when you have lag time and not many toys to entertain.  But, the indoor pool was a huge hit with my boys and we finally had to drag them out of the pool!  I highly recommend this hotel and we will be staying there next time we are in town!MoreShow less</t>
+  </si>
+  <si>
+    <t>My family recently stayed here while we were visiting relatives in the area.  First, every single hotel staff member we encountered were more then just curteous, but friendly and polite too.  We had to make some last minute changes to our reservation and the hotel was very willing to accomodate those changes.  We were also ahead of schedule and arrived early.  They were able to get us into our room early too.  I loved the breakfast area.  Many newer build hotels are quite modernized and I feel like I am sleeping in a museum.  This hotel is very cozy and warm.  The fireplace and oversized couch was truely comfortable.  We were staying around the holidays and they had a huge Christmas tree all lit up.  I loved all those little touches. The rooms were very comfortable and extremely clean!  I was very impressed by the cleanliness of the hotel.  The best part of our stay was the indoor pool.  Traveling in December with 2 small children can present challenges when you have lag time and not many toys to entertain.  But, the indoor pool was a huge hit with my boys and we finally had to drag them out of the pool!  I highly recommend this hotel and we will be staying there next time we are in town!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r122014043-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1272,12 +1995,6 @@
   </si>
   <si>
     <t>I had several family members recently stay at this particular location when they were in town for the holidays. The construction that was previously bad in the area has been completed and the hotel is now very easy to get in and out of, and in the best possible location in regards to Weatherford's food and service accessibility. The staff was very courteous in dealing with any special needs or questions my family had, and all of the rooms I visited were clean clean clean! It's nice to finely have a quality establishment in Weatherford that I can comfortably recommend to visiting family and friends without worry.</t>
-  </si>
-  <si>
-    <t>December 2011</t>
-  </si>
-  <si>
-    <t>PolarBearTx</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r121883176-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1306,9 +2023,6 @@
 The business 'center' was a couple of computers...As mentioned in the review title, there were 5 of us, and not all places can accomodate all of us in one room.   But no problems here.   We were able to stay in a room with 2 beds and  a pull out couch bed.  First the room, the beds were comfortable, the room was very clean and actually very new looking.   I did not look to see when the hotel was built, but it appears to be relatively new.  There was a microwave and frig in the room, we didn't use them, but I looked at them and they were clean.   We did not use the internet, but they have it, so I can not speak to how that worked.   The TV worked fine.The hotel itself is not a large one, 3 floors, and if I just had to find something to complain about, the parking lot is rather small as well, we ended up having to park around the back of the hotel.  But that's really nitpicking, as there were available spots in the back, so its not like we were fighting for a spot.I did not use the fitness room, but looked in and there appeared to be 3 machines visible from the door, a treadmill, eliptical machine and stationary bike.   I saw the pool we also did not use, small but indoor, and so still in use.The business 'center' was a couple of computers up to the left just inside the hotel across from the front desk.  The center looked clean, new machines and all that, however I do prefer business centers to be in a separate room in case you are having to enter sensitive account information to check on something.We did eat the hot breakfast.   I had biscuit with gravy, the sausage filled kind, that I love, and an omelet, and ham.   The family also ate cinamon rolls, toast, cereal, and we had juice and milk.  All the food tasted good.  My boys like waffles, which we did not see, but that may something they offer on another day or not, either way we left full.About the breakfast area, nice and neat, however most of the seating was at a single high sitting table with bar stools that seated about 14.   Other than that there are just 2 or 3 other tables, which we did obtain one.   Just an observation, not a complaint, although I imagine most familiies don't necessary want to eat breakfast at a table with people they don't know.  We didn't have time to explore much of the surrounding area, because we were just passing through, but the area around is nice, with lots of stores that my wife noticed like JC Penney, Kohls, we did stop for ice cream at Chick-fil-a and there were others I cannot recall.   A nice area we both commented.   Yes, there is road construction on the interstate, but we had no issues.Staff was friendly at check-in, did not require staff for anything during stay.   On the Kid's Activity rating, I'm not sure what they meant, it has a pool, so I put average.  It's not a knock or anything on the hotel.   If we find ourselves in the area again, we would definitely stay here.More</t>
   </si>
   <si>
-    <t>OU4EVR</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r119879545-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1331,9 +2045,6 @@
   </si>
   <si>
     <t>I used my points to stay here with my family while we were moving. Overall it's a pretty hotel. Modern amenities and such.The beds aren't too comfortable but what hotel bed is? The rooms are nice but could be a little bigger when you have your family with you.Breakfast is okay. For $107/night you'd think they'd have a better selection.My biggest gripe is that for a new hotel they allow smoking. We continued smelling it even though our floor was supposed to be nonsmoking. I complained but the owners are not from this country and seem to not care as long as they're renting rooms.More</t>
-  </si>
-  <si>
-    <t>EsKezzy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r118903841-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1365,9 +2076,6 @@
 Our room was a handicapped accessible room. Overall this was fine but it was a little difficult at shower time because there is no edge at the bottom of the shower. My children kind of had trouble keeping the water...We stayed at this hotel for 5 days and really it set the standard for our trip. We would stay here again. Actually after staying here we were all disappointed with the other hotels we stayed at on this trip.The staff was super helpful in helping us choose a room and with giving directions. The staff was all very friendly and inviting to talk to. Everyone seemed to like their job. We stayed in the family suite, which is HUGE. Seriously, this was bigger than my 1st apartment. Walking in, it's like a large hotel room with a table and convertible sofa and TV/dresser. This leads into a slightly divided bedroom with a king size bed and another tv/dresser (kind of odd if you want to watch both these TVs at the same time). There is a large bathroom that connects to the 'master' bedroom with another king size bed and tv. The room also has a small sink, microwave, and moderate sized 'dorm' fridge.They had free wi-fi but at times the connection wasn't that consistent or great. Free (and plentiful) parking. Free breakfast. They did have an exercise room and indoor pool but we didn't use those.Our room was a handicapped accessible room. Overall this was fine but it was a little difficult at shower time because there is no edge at the bottom of the shower. My children kind of had trouble keeping the water in the shower and I think we gave the bathroom a good rinsing down near the toilet. (if you have young children make sure you request not to have the handicap room on the first floor b/c there is no bathtub). The removable and adjustable height shower head was nice. Breakfast was good. The woman who works the breakfast area was super nice and friendly, especially to the children. They have a really cool automatic pancake maker (just push a button) that my children loved. The breakfast area was stocked well. My only complaint about the breakfast area is that there is only 1 table to seat a family. There is a very large long table with lots of high chairs (not good for young children) and then there are some chairs with very small talbles. Seating for more than a couple is difficult.Location was good. The freeway is being worked on right now and we discovered that one exit past the one google maps says to take, drops you off right at the hotel. Leaving is tricky, unless you make a somewhat illegal left turn out of the side driveway (which we did every time). It's very close to the newer shopping - so lots of places to buy stuff and food.More</t>
   </si>
   <si>
-    <t>Roxi H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r118243835-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1402,9 +2110,6 @@
   </si>
   <si>
     <t>While in Weatherford on business I stayed at the Holiday Inn Express and found the staff to be exceptional in their professionalism, helpfulness, and friendliness. The hotel is clean and comfortable and is a good place to stay for the business traveler as well as for families. The room had a microwave and a dorm-sized fridge as well as a coffee maker and flat-screen TV. Breakfast is the standard Holiday Inn Express fare, with the pushbutton pancake maker, cinnamon rolls, biscuits, eggs or omelets, sausage, ham, or bacon, plus pastries, bagels, yogurt, cereal, etc. If I were to change anything about this hotel, it would be the AC. A wall thermostat is preferable to the AC unit with the dials; I find it hard to get the room comfortable and not either too warm or too cool. Oh, I'd probably add in a bigger variety of fresh fruit. One of the nicer things about the hotel is cookies and ice water in the lobby, and the water has fruit added- oranges, lemons, or limes. Very refreshing on a hot, hot summer day!More</t>
-  </si>
-  <si>
-    <t>MonkeyOnTheWing</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r115596575-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -1437,9 +2142,6 @@
 Although our rear room was fairly quiet, there was considerable all-night glare from the motel's truck parking lot, itself another bad sign.  In conclu- sion, skip this property and probably all Weatherford too, until the massive I-20 widening is complete and the management does some...Because the Texas Hwy Dept &amp; the City of Weatherford have totally botched convenient business access during construction along I-20 here, this Holiday Inn Express is nearly inaccessible, especially for westbound traffic.  The overpasses, service roads, driveways and misc infrastructure are in total disarray and are dangerous for visitors to figure their maze of poorly-signed, narrow, twisting detour routes.  To find this motel, be very, very careful navigating construction zones, or try and find a circuitous back way using Causbie Rd, Lockwood Ln and other streets behind the shopping ctr.  GPS devices will not help, either, in this situation. The motel property itself is poorly designed and its entrances and drive aisles feature some steep hills and other challenging geometrics.  The staff however was polite and helpful and seemed to appreciate anyone who managed the obstacle course to arrive safely at the front desk.  There was a huge iced lemonade dispenser in the lobby for guests.  Our room's door mechanism would not solidly lock and they gave us another room without hesitation.  But there were cobwebs in the corners of the breakfast area and other signs of 'absentee-manage- ment'-type neglect and lack of quality assurance.  Although our rear room was fairly quiet, there was considerable all-night glare from the motel's truck parking lot, itself another bad sign.  In conclu- sion, skip this property and probably all Weatherford too, until the massive I-20 widening is complete and the management does some major housecleaning.More</t>
   </si>
   <si>
-    <t>acker11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r46419811-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1458,9 +2160,6 @@
     <t>September 2009</t>
   </si>
   <si>
-    <t>musicjoshmusic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r36640103-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1477,9 +2176,6 @@
   </si>
   <si>
     <t>July 2009</t>
-  </si>
-  <si>
-    <t>gotoptions</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1216780-r29498690-Holiday_Inn_Express_Hotel_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -2002,59 +2698,55 @@
       <c r="A2" t="n">
         <v>58700</v>
       </c>
-      <c r="B2" t="n">
-        <v>16321</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -2062,245 +2754,231 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58700</v>
       </c>
-      <c r="B3" t="n">
-        <v>156158</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58700</v>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58700</v>
       </c>
-      <c r="B5" t="n">
-        <v>71476</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58700</v>
       </c>
-      <c r="B6" t="n">
-        <v>10061</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2311,207 +2989,199 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>78</v>
-      </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58700</v>
       </c>
-      <c r="B7" t="n">
-        <v>156159</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58700</v>
       </c>
-      <c r="B8" t="n">
-        <v>3852</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58700</v>
       </c>
-      <c r="B9" t="n">
-        <v>41161</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
         <v>102</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
         <v>4</v>
       </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2519,123 +3189,111 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58700</v>
       </c>
-      <c r="B10" t="n">
-        <v>156160</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
         <v>109</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>115</v>
-      </c>
-      <c r="X10" t="s">
-        <v>116</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58700</v>
       </c>
-      <c r="B11" t="n">
-        <v>156161</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2646,61 +3304,53 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>126</v>
-      </c>
-      <c r="X11" t="s">
-        <v>127</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58700</v>
       </c>
-      <c r="B12" t="n">
-        <v>137118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2712,60 +3362,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58700</v>
       </c>
-      <c r="B13" t="n">
-        <v>156162</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2777,321 +3423,313 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58700</v>
       </c>
-      <c r="B14" t="n">
-        <v>156163</v>
-      </c>
-      <c r="C14" t="s">
-        <v>149</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" t="s">
+        <v>138</v>
+      </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58700</v>
       </c>
-      <c r="B15" t="n">
-        <v>454</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58700</v>
       </c>
-      <c r="B16" t="n">
-        <v>156164</v>
-      </c>
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58700</v>
       </c>
-      <c r="B17" t="n">
-        <v>399</v>
-      </c>
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>177</v>
-      </c>
-      <c r="X17" t="s">
-        <v>178</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58700</v>
       </c>
-      <c r="B18" t="n">
-        <v>156165</v>
-      </c>
-      <c r="C18" t="s">
-        <v>180</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="n">
         <v>5</v>
@@ -3106,204 +3744,188 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58700</v>
       </c>
-      <c r="B19" t="n">
-        <v>156166</v>
-      </c>
-      <c r="C19" t="s">
-        <v>187</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>194</v>
-      </c>
-      <c r="X19" t="s">
-        <v>195</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58700</v>
       </c>
-      <c r="B20" t="n">
-        <v>156167</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>203</v>
-      </c>
-      <c r="X20" t="s">
-        <v>204</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58700</v>
       </c>
-      <c r="B21" t="n">
-        <v>9568</v>
-      </c>
-      <c r="C21" t="s">
-        <v>206</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3311,63 +3933,57 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58700</v>
       </c>
-      <c r="B22" t="n">
-        <v>156168</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
+        <v>109</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
         <v>3</v>
       </c>
-      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>1</v>
@@ -3376,124 +3992,118 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="X22" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58700</v>
       </c>
-      <c r="B23" t="n">
-        <v>156169</v>
-      </c>
-      <c r="C23" t="s">
-        <v>223</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" t="s">
+        <v>198</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>200</v>
+      </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58700</v>
       </c>
-      <c r="B24" t="n">
-        <v>156170</v>
-      </c>
-      <c r="C24" t="s">
-        <v>229</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
@@ -3506,72 +4116,64 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58700</v>
       </c>
-      <c r="B25" t="n">
-        <v>156171</v>
-      </c>
-      <c r="C25" t="s">
-        <v>235</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
@@ -3584,116 +4186,104 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
       </c>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>248</v>
-      </c>
-      <c r="X26" t="s">
-        <v>249</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58700</v>
       </c>
-      <c r="B27" t="n">
-        <v>13602</v>
-      </c>
-      <c r="C27" t="s">
-        <v>251</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
         <v>5</v>
       </c>
@@ -3704,61 +4294,53 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>258</v>
-      </c>
-      <c r="X27" t="s">
-        <v>259</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58700</v>
       </c>
-      <c r="B28" t="n">
-        <v>5189</v>
-      </c>
-      <c r="C28" t="s">
-        <v>261</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3770,585 +4352,507 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="X28" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58700</v>
       </c>
-      <c r="B29" t="n">
-        <v>116775</v>
-      </c>
-      <c r="C29" t="s">
-        <v>271</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
         <v>241</v>
       </c>
       <c r="O29" t="s">
-        <v>125</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>277</v>
-      </c>
-      <c r="X29" t="s">
-        <v>278</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58700</v>
       </c>
-      <c r="B30" t="n">
-        <v>156172</v>
-      </c>
-      <c r="C30" t="s">
-        <v>280</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>287</v>
-      </c>
-      <c r="X30" t="s">
-        <v>288</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58700</v>
       </c>
-      <c r="B31" t="n">
-        <v>156173</v>
-      </c>
-      <c r="C31" t="s">
-        <v>290</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>253</v>
+      </c>
+      <c r="X31" t="s">
+        <v>254</v>
+      </c>
       <c r="Y31" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58700</v>
       </c>
-      <c r="B32" t="n">
-        <v>156174</v>
-      </c>
-      <c r="C32" t="s">
-        <v>296</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>80</v>
+      </c>
       <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>262</v>
+      </c>
+      <c r="X32" t="s">
+        <v>263</v>
+      </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58700</v>
       </c>
-      <c r="B33" t="n">
-        <v>15618</v>
-      </c>
-      <c r="C33" t="s">
-        <v>302</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
         <v>5</v>
       </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>270</v>
+      </c>
+      <c r="X33" t="s">
+        <v>271</v>
+      </c>
       <c r="Y33" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58700</v>
       </c>
-      <c r="B34" t="n">
-        <v>156175</v>
-      </c>
-      <c r="C34" t="s">
-        <v>310</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>270</v>
+      </c>
+      <c r="X34" t="s">
+        <v>271</v>
+      </c>
       <c r="Y34" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58700</v>
       </c>
-      <c r="B35" t="n">
-        <v>156176</v>
-      </c>
-      <c r="C35" t="s">
-        <v>317</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="J35" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
         <v>3</v>
       </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="N35" t="s">
+        <v>284</v>
+      </c>
+      <c r="O35" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>3</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>285</v>
+      </c>
+      <c r="X35" t="s">
+        <v>286</v>
+      </c>
       <c r="Y35" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58700</v>
       </c>
-      <c r="B36" t="n">
-        <v>18228</v>
-      </c>
-      <c r="C36" t="s">
-        <v>323</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="J36" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>329</v>
-      </c>
-      <c r="X36" t="s">
-        <v>330</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
@@ -4361,44 +4865,40 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="J37" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
         <v>5</v>
       </c>
@@ -4415,557 +4915,481 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58700</v>
       </c>
-      <c r="B38" t="n">
-        <v>156177</v>
-      </c>
-      <c r="C38" t="s">
-        <v>337</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="J38" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="O38" t="s">
-        <v>163</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>2</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>344</v>
-      </c>
-      <c r="X38" t="s">
-        <v>345</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58700</v>
       </c>
-      <c r="B39" t="n">
-        <v>156178</v>
-      </c>
-      <c r="C39" t="s">
-        <v>347</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="K39" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>311</v>
+      </c>
+      <c r="O39" t="s">
+        <v>80</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>2</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>312</v>
+      </c>
+      <c r="X39" t="s">
+        <v>313</v>
+      </c>
       <c r="Y39" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58700</v>
       </c>
-      <c r="B40" t="n">
-        <v>358</v>
-      </c>
-      <c r="C40" t="s">
-        <v>353</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="J40" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>360</v>
-      </c>
-      <c r="X40" t="s">
-        <v>361</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58700</v>
       </c>
-      <c r="B41" t="n">
-        <v>156179</v>
-      </c>
-      <c r="C41" t="s">
-        <v>363</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58700</v>
       </c>
-      <c r="B42" t="n">
-        <v>156180</v>
-      </c>
-      <c r="C42" t="s">
-        <v>369</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>332</v>
+      </c>
+      <c r="X42" t="s">
+        <v>333</v>
+      </c>
       <c r="Y42" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58700</v>
       </c>
-      <c r="B43" t="n">
-        <v>156181</v>
-      </c>
-      <c r="C43" t="s">
-        <v>377</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="J43" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>341</v>
+      </c>
+      <c r="X43" t="s">
+        <v>342</v>
+      </c>
       <c r="Y43" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58700</v>
       </c>
-      <c r="B44" t="n">
-        <v>40909</v>
-      </c>
-      <c r="C44" t="s">
-        <v>384</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="J44" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="K44" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s">
-        <v>359</v>
-      </c>
-      <c r="O44" t="s">
-        <v>125</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>349</v>
+      </c>
+      <c r="X44" t="s">
+        <v>350</v>
+      </c>
       <c r="Y44" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58700</v>
       </c>
-      <c r="B45" t="n">
-        <v>364</v>
-      </c>
-      <c r="C45" t="s">
-        <v>391</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="J45" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
+      <c r="N45" t="s">
+        <v>241</v>
+      </c>
+      <c r="O45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
         <v>5</v>
       </c>
@@ -4979,67 +5403,57 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58700</v>
       </c>
-      <c r="B46" t="n">
-        <v>26246</v>
-      </c>
-      <c r="C46" t="s">
-        <v>396</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="J46" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="K46" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="O46" t="s">
-        <v>70</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>1</v>
@@ -5048,147 +5462,133 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="X46" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="Y46" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58700</v>
       </c>
-      <c r="B47" t="n">
-        <v>156182</v>
-      </c>
-      <c r="C47" t="s">
-        <v>406</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="J47" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>371</v>
+      </c>
+      <c r="X47" t="s">
+        <v>372</v>
+      </c>
       <c r="Y47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58700</v>
       </c>
-      <c r="B48" t="n">
-        <v>156183</v>
-      </c>
-      <c r="C48" t="s">
-        <v>413</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="J48" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="K48" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
         <v>5</v>
       </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5196,134 +5596,122 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58700</v>
       </c>
-      <c r="B49" t="n">
-        <v>156184</v>
-      </c>
-      <c r="C49" t="s">
-        <v>420</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="J49" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="K49" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>385</v>
+      </c>
+      <c r="O49" t="s">
+        <v>80</v>
+      </c>
+      <c r="P49" t="n">
         <v>3</v>
       </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
         <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="X49" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="Y49" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58700</v>
       </c>
-      <c r="B50" t="n">
-        <v>156185</v>
-      </c>
-      <c r="C50" t="s">
-        <v>429</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="J50" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="K50" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
-      <c r="N50" t="s">
-        <v>435</v>
-      </c>
-      <c r="O50" t="s">
-        <v>53</v>
-      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
         <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -5338,76 +5726,60 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58700</v>
       </c>
-      <c r="B51" t="n">
-        <v>156186</v>
-      </c>
-      <c r="C51" t="s">
-        <v>437</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="J51" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
-      <c r="N51" t="s">
-        <v>435</v>
-      </c>
-      <c r="O51" t="s">
-        <v>61</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52">
@@ -5420,46 +5792,44 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="J52" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="K52" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="O52" t="s">
-        <v>70</v>
-      </c>
-      <c r="P52" t="n">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
         <v>4</v>
       </c>
-      <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -5470,137 +5840,123 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58700</v>
       </c>
-      <c r="B53" t="n">
-        <v>156187</v>
-      </c>
-      <c r="C53" t="s">
-        <v>450</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="J53" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="K53" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
-      <c r="S53" t="n">
-        <v>2</v>
-      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="X53" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="Y53" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58700</v>
       </c>
-      <c r="B54" t="n">
-        <v>156188</v>
-      </c>
-      <c r="C54" t="s">
-        <v>459</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="J54" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="K54" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="O54" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
       </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
@@ -5612,64 +5968,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58700</v>
       </c>
-      <c r="B55" t="n">
-        <v>156189</v>
-      </c>
-      <c r="C55" t="s">
-        <v>466</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="J55" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="K55" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="L55" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
       <c r="S55" t="n">
         <v>5</v>
       </c>
@@ -5680,58 +6026,54 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>426</v>
+      </c>
+      <c r="X55" t="s">
+        <v>427</v>
+      </c>
       <c r="Y55" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58700</v>
       </c>
-      <c r="B56" t="n">
-        <v>156190</v>
-      </c>
-      <c r="C56" t="s">
-        <v>473</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="J56" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="K56" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
-      </c>
-      <c r="N56" t="s">
-        <v>479</v>
-      </c>
-      <c r="O56" t="s">
-        <v>70</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
       <c r="P56" t="n">
         <v>5</v>
       </c>
@@ -5739,10 +6081,10 @@
         <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
@@ -5751,10 +6093,2824 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>434</v>
+      </c>
+      <c r="X56" t="s">
+        <v>435</v>
+      </c>
       <c r="Y56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>440</v>
+      </c>
+      <c r="L57" t="s">
+        <v>441</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>442</v>
+      </c>
+      <c r="O57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>443</v>
+      </c>
+      <c r="X57" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>446</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>447</v>
+      </c>
+      <c r="J58" t="s">
+        <v>448</v>
+      </c>
+      <c r="K58" t="s">
+        <v>449</v>
+      </c>
+      <c r="L58" t="s">
+        <v>450</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>442</v>
+      </c>
+      <c r="O58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>443</v>
+      </c>
+      <c r="X58" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>452</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>453</v>
+      </c>
+      <c r="J59" t="s">
+        <v>454</v>
+      </c>
+      <c r="K59" t="s">
+        <v>455</v>
+      </c>
+      <c r="L59" t="s">
+        <v>456</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>457</v>
+      </c>
+      <c r="O59" t="s">
+        <v>109</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>458</v>
+      </c>
+      <c r="X59" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>461</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>462</v>
+      </c>
+      <c r="J60" t="s">
+        <v>463</v>
+      </c>
+      <c r="K60" t="s">
+        <v>464</v>
+      </c>
+      <c r="L60" t="s">
+        <v>465</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>466</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>467</v>
+      </c>
+      <c r="X60" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>470</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>471</v>
+      </c>
+      <c r="J61" t="s">
+        <v>472</v>
+      </c>
+      <c r="K61" t="s">
+        <v>473</v>
+      </c>
+      <c r="L61" t="s">
+        <v>474</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>404</v>
+      </c>
+      <c r="O61" t="s">
+        <v>198</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>443</v>
+      </c>
+      <c r="X61" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>476</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>477</v>
+      </c>
+      <c r="J62" t="s">
         <v>478</v>
+      </c>
+      <c r="K62" t="s">
+        <v>479</v>
+      </c>
+      <c r="L62" t="s">
+        <v>480</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>481</v>
+      </c>
+      <c r="O62" t="s">
+        <v>80</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>482</v>
+      </c>
+      <c r="X62" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>485</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>486</v>
+      </c>
+      <c r="J63" t="s">
+        <v>487</v>
+      </c>
+      <c r="K63" t="s">
+        <v>488</v>
+      </c>
+      <c r="L63" t="s">
+        <v>489</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>481</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>490</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J64" t="s">
+        <v>492</v>
+      </c>
+      <c r="K64" t="s">
+        <v>493</v>
+      </c>
+      <c r="L64" t="s">
+        <v>494</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>495</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>496</v>
+      </c>
+      <c r="J65" t="s">
+        <v>497</v>
+      </c>
+      <c r="K65" t="s">
+        <v>498</v>
+      </c>
+      <c r="L65" t="s">
+        <v>499</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>500</v>
+      </c>
+      <c r="O65" t="s">
+        <v>109</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>502</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>503</v>
+      </c>
+      <c r="J66" t="s">
+        <v>504</v>
+      </c>
+      <c r="K66" t="s">
+        <v>245</v>
+      </c>
+      <c r="L66" t="s">
+        <v>505</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>506</v>
+      </c>
+      <c r="O66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>507</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>508</v>
+      </c>
+      <c r="J67" t="s">
+        <v>509</v>
+      </c>
+      <c r="K67" t="s">
+        <v>510</v>
+      </c>
+      <c r="L67" t="s">
+        <v>511</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>512</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>513</v>
+      </c>
+      <c r="J68" t="s">
+        <v>514</v>
+      </c>
+      <c r="K68" t="s">
+        <v>515</v>
+      </c>
+      <c r="L68" t="s">
+        <v>516</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>506</v>
+      </c>
+      <c r="O68" t="s">
+        <v>198</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>517</v>
+      </c>
+      <c r="X68" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>520</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>521</v>
+      </c>
+      <c r="J69" t="s">
+        <v>522</v>
+      </c>
+      <c r="K69" t="s">
+        <v>392</v>
+      </c>
+      <c r="L69" t="s">
+        <v>523</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>524</v>
+      </c>
+      <c r="O69" t="s">
+        <v>80</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>525</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>526</v>
+      </c>
+      <c r="J70" t="s">
+        <v>527</v>
+      </c>
+      <c r="K70" t="s">
+        <v>528</v>
+      </c>
+      <c r="L70" t="s">
+        <v>529</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>530</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>531</v>
+      </c>
+      <c r="X70" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>534</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>535</v>
+      </c>
+      <c r="J71" t="s">
+        <v>536</v>
+      </c>
+      <c r="K71" t="s">
+        <v>537</v>
+      </c>
+      <c r="L71" t="s">
+        <v>538</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>539</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>540</v>
+      </c>
+      <c r="J72" t="s">
+        <v>541</v>
+      </c>
+      <c r="K72" t="s">
+        <v>542</v>
+      </c>
+      <c r="L72" t="s">
+        <v>543</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>544</v>
+      </c>
+      <c r="O72" t="s">
+        <v>80</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>545</v>
+      </c>
+      <c r="X72" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>548</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>549</v>
+      </c>
+      <c r="J73" t="s">
+        <v>541</v>
+      </c>
+      <c r="K73" t="s">
+        <v>550</v>
+      </c>
+      <c r="L73" t="s">
+        <v>551</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>553</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>554</v>
+      </c>
+      <c r="J74" t="s">
+        <v>555</v>
+      </c>
+      <c r="K74" t="s">
+        <v>556</v>
+      </c>
+      <c r="L74" t="s">
+        <v>557</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>558</v>
+      </c>
+      <c r="O74" t="s">
+        <v>80</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>559</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>560</v>
+      </c>
+      <c r="J75" t="s">
+        <v>561</v>
+      </c>
+      <c r="K75" t="s">
+        <v>562</v>
+      </c>
+      <c r="L75" t="s">
+        <v>563</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>564</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>565</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>566</v>
+      </c>
+      <c r="J76" t="s">
+        <v>567</v>
+      </c>
+      <c r="K76" t="s">
+        <v>568</v>
+      </c>
+      <c r="L76" t="s">
+        <v>569</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>564</v>
+      </c>
+      <c r="O76" t="s">
+        <v>80</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>571</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>572</v>
+      </c>
+      <c r="J77" t="s">
+        <v>573</v>
+      </c>
+      <c r="K77" t="s">
+        <v>574</v>
+      </c>
+      <c r="L77" t="s">
+        <v>575</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>576</v>
+      </c>
+      <c r="O77" t="s">
+        <v>80</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>578</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>579</v>
+      </c>
+      <c r="J78" t="s">
+        <v>580</v>
+      </c>
+      <c r="K78" t="s">
+        <v>581</v>
+      </c>
+      <c r="L78" t="s">
+        <v>582</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>583</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>585</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>586</v>
+      </c>
+      <c r="J79" t="s">
+        <v>587</v>
+      </c>
+      <c r="K79" t="s">
+        <v>588</v>
+      </c>
+      <c r="L79" t="s">
+        <v>589</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>583</v>
+      </c>
+      <c r="O79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>591</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>592</v>
+      </c>
+      <c r="J80" t="s">
+        <v>593</v>
+      </c>
+      <c r="K80" t="s">
+        <v>594</v>
+      </c>
+      <c r="L80" t="s">
+        <v>595</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>596</v>
+      </c>
+      <c r="O80" t="s">
+        <v>80</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>597</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>598</v>
+      </c>
+      <c r="J81" t="s">
+        <v>599</v>
+      </c>
+      <c r="K81" t="s">
+        <v>600</v>
+      </c>
+      <c r="L81" t="s">
+        <v>601</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>544</v>
+      </c>
+      <c r="O81" t="s">
+        <v>198</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>603</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>604</v>
+      </c>
+      <c r="J82" t="s">
+        <v>599</v>
+      </c>
+      <c r="K82" t="s">
+        <v>605</v>
+      </c>
+      <c r="L82" t="s">
+        <v>606</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>607</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>608</v>
+      </c>
+      <c r="J83" t="s">
+        <v>609</v>
+      </c>
+      <c r="K83" t="s">
+        <v>610</v>
+      </c>
+      <c r="L83" t="s">
+        <v>611</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>612</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>613</v>
+      </c>
+      <c r="X83" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>616</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>617</v>
+      </c>
+      <c r="J84" t="s">
+        <v>618</v>
+      </c>
+      <c r="K84" t="s">
+        <v>619</v>
+      </c>
+      <c r="L84" t="s">
+        <v>620</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>612</v>
+      </c>
+      <c r="O84" t="s">
+        <v>80</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>613</v>
+      </c>
+      <c r="X84" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>622</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>623</v>
+      </c>
+      <c r="J85" t="s">
+        <v>624</v>
+      </c>
+      <c r="K85" t="s">
+        <v>625</v>
+      </c>
+      <c r="L85" t="s">
+        <v>626</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>627</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>628</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>629</v>
+      </c>
+      <c r="J86" t="s">
+        <v>630</v>
+      </c>
+      <c r="K86" t="s">
+        <v>631</v>
+      </c>
+      <c r="L86" t="s">
+        <v>632</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>633</v>
+      </c>
+      <c r="O86" t="s">
+        <v>80</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>634</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>635</v>
+      </c>
+      <c r="J87" t="s">
+        <v>636</v>
+      </c>
+      <c r="K87" t="s">
+        <v>637</v>
+      </c>
+      <c r="L87" t="s">
+        <v>638</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>639</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>640</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>641</v>
+      </c>
+      <c r="J88" t="s">
+        <v>642</v>
+      </c>
+      <c r="K88" t="s">
+        <v>643</v>
+      </c>
+      <c r="L88" t="s">
+        <v>644</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>633</v>
+      </c>
+      <c r="O88" t="s">
+        <v>80</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>646</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>647</v>
+      </c>
+      <c r="J89" t="s">
+        <v>648</v>
+      </c>
+      <c r="K89" t="s">
+        <v>649</v>
+      </c>
+      <c r="L89" t="s">
+        <v>650</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>633</v>
+      </c>
+      <c r="O89" t="s">
+        <v>80</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>651</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>652</v>
+      </c>
+      <c r="J90" t="s">
+        <v>653</v>
+      </c>
+      <c r="K90" t="s">
+        <v>654</v>
+      </c>
+      <c r="L90" t="s">
+        <v>655</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>633</v>
+      </c>
+      <c r="O90" t="s">
+        <v>80</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>657</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>658</v>
+      </c>
+      <c r="J91" t="s">
+        <v>659</v>
+      </c>
+      <c r="K91" t="s">
+        <v>660</v>
+      </c>
+      <c r="L91" t="s">
+        <v>661</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>662</v>
+      </c>
+      <c r="X91" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>665</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>666</v>
+      </c>
+      <c r="J92" t="s">
+        <v>667</v>
+      </c>
+      <c r="K92" t="s">
+        <v>668</v>
+      </c>
+      <c r="L92" t="s">
+        <v>669</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>670</v>
+      </c>
+      <c r="O92" t="s">
+        <v>80</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>672</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>673</v>
+      </c>
+      <c r="J93" t="s">
+        <v>674</v>
+      </c>
+      <c r="K93" t="s">
+        <v>675</v>
+      </c>
+      <c r="L93" t="s">
+        <v>676</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>670</v>
+      </c>
+      <c r="O93" t="s">
+        <v>109</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>677</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>678</v>
+      </c>
+      <c r="J94" t="s">
+        <v>679</v>
+      </c>
+      <c r="K94" t="s">
+        <v>680</v>
+      </c>
+      <c r="L94" t="s">
+        <v>681</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>682</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>684</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>685</v>
+      </c>
+      <c r="J95" t="s">
+        <v>686</v>
+      </c>
+      <c r="K95" t="s">
+        <v>687</v>
+      </c>
+      <c r="L95" t="s">
+        <v>688</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>682</v>
+      </c>
+      <c r="O95" t="s">
+        <v>80</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>689</v>
+      </c>
+      <c r="X95" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>692</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>693</v>
+      </c>
+      <c r="J96" t="s">
+        <v>694</v>
+      </c>
+      <c r="K96" t="s">
+        <v>695</v>
+      </c>
+      <c r="L96" t="s">
+        <v>696</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>697</v>
+      </c>
+      <c r="O96" t="s">
+        <v>198</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>698</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>699</v>
+      </c>
+      <c r="J97" t="s">
+        <v>700</v>
+      </c>
+      <c r="K97" t="s">
+        <v>701</v>
+      </c>
+      <c r="L97" t="s">
+        <v>702</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>703</v>
+      </c>
+      <c r="O97" t="s">
+        <v>80</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>704</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>705</v>
+      </c>
+      <c r="J98" t="s">
+        <v>706</v>
+      </c>
+      <c r="K98" t="s">
+        <v>707</v>
+      </c>
+      <c r="L98" t="s">
+        <v>708</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>709</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
